--- a/이벤트DATA_TW.xlsx
+++ b/이벤트DATA_TW.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F96102AE-BBF1-45A0-88BE-99EC5BEBCA5C}"/>
   <bookViews>
-    <workbookView xWindow="30375" yWindow="705" windowWidth="22440" windowHeight="14130" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="30030" yWindow="420" windowWidth="22440" windowHeight="14130" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="5" r:id="rId1"/>
@@ -2804,10 +2804,10 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/이벤트DATA_TW.xlsx
+++ b/이벤트DATA_TW.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26424"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F96102AE-BBF1-45A0-88BE-99EC5BEBCA5C}"/>
+  <xr:revisionPtr revIDLastSave="465" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E74DDAC-8E11-46CD-905F-D024BE4CF71D}"/>
   <bookViews>
-    <workbookView xWindow="30030" yWindow="420" windowWidth="22440" windowHeight="14130" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="30030" yWindow="420" windowWidth="22440" windowHeight="14130" firstSheet="1" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="5" r:id="rId1"/>
-    <sheet name="230411 업데이트" sheetId="3" r:id="rId2"/>
+    <sheet name="230411 업데이트 (2)" sheetId="6" r:id="rId2"/>
+    <sheet name="230411 업데이트" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230411 업데이트'!$B$1:$T$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230411 업데이트'!$B$1:$T$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230411 업데이트 (2)'!$B$1:$T$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$U$46</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="137">
   <si>
     <t>최종수정일</t>
   </si>
@@ -330,40 +332,40 @@
     <t>마법 공격력</t>
   </si>
   <si>
-    <t>매터리얼 상자[일반~고급]</t>
-  </si>
-  <si>
-    <t>봉인된 영혼석[희귀]</t>
-  </si>
-  <si>
-    <t>무기 강화 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>방어구 강화 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>장신구 강화 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>행운의 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>클래스 전용 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>변신 강화 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>장인의 희귀 제작 비급서 조각</t>
-  </si>
-  <si>
-    <t>축복받은 장비 각인석</t>
-  </si>
-  <si>
     <t>일루미나의 성지 탐험 출석체크 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>매터리얼 상자[일반~고급]</t>
+  </si>
+  <si>
+    <t>봉인된 영혼석[희귀]</t>
+  </si>
+  <si>
+    <t>무기 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>방어구 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>장신구 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>행운의 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>클래스 전용 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>변신 강화 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>장인의 희귀 제작 비급서 조각</t>
+  </si>
+  <si>
+    <t>축복받은 장비 각인석</t>
+  </si>
+  <si>
     <t>버터클과 함께하는 출석체크 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -398,28 +400,28 @@
     <t>고급 매터리얼 확정 상자</t>
   </si>
   <si>
-    <t>특별한 이벤트 제작 코인[이벤트]</t>
-  </si>
-  <si>
-    <t>아이템 강화 성공 100회</t>
-  </si>
-  <si>
-    <t>아이템 제작 성공 30회</t>
-  </si>
-  <si>
-    <t>변신 획득 25회</t>
-  </si>
-  <si>
-    <t>서번트 획득 25회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 미션 완료 </t>
-  </si>
-  <si>
     <t>영웅을 위한 장비 제작 지원 미션 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>아이템 강화 성공 100회</t>
+  </si>
+  <si>
+    <t>특별한 이벤트 제작 코인[이벤트]</t>
+  </si>
+  <si>
+    <t>아이템 제작 성공 30회</t>
+  </si>
+  <si>
+    <t>변신 획득 25회</t>
+  </si>
+  <si>
+    <t>서번트 획득 25회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 미션 완료 </t>
+  </si>
+  <si>
     <t>버터클과 함께하는 미션 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -430,9 +432,15 @@
     <t>변신의 돌 30회 소모</t>
   </si>
   <si>
+    <t xml:space="preserve">상급 변신 뽑기권[이벤트] </t>
+  </si>
+  <si>
     <t>서번트 소환의 돌 30회 소모</t>
   </si>
   <si>
+    <t xml:space="preserve">상급 서번트 뽑기권[이벤트] </t>
+  </si>
+  <si>
     <t>변신 합성 20회 시도</t>
   </si>
   <si>
@@ -440,12 +448,6 @@
   </si>
   <si>
     <t>일일 미션 30회 수행</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상급 변신 뽑기권[이벤트] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">상급 서번트 뽑기권[이벤트] </t>
   </si>
   <si>
     <t>길드 코인 상자</t>
@@ -458,22 +460,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>특별한 제작 재료 상자[이벤트] 1개</t>
+  </si>
+  <si>
     <t>특별한 이벤트 제작 코인[이벤트] 1개</t>
   </si>
   <si>
-    <t>특별한 제작 재료 상자[이벤트] 1개</t>
+    <t>계정당 10회</t>
   </si>
   <si>
     <t>영웅 장비 제작 비급서 조각 상자[이벤트] 1개</t>
   </si>
   <si>
+    <t>계정당 30회</t>
+  </si>
+  <si>
     <t>상급 아드레날린 증폭 포션 1개</t>
-  </si>
-  <si>
-    <t>계정당 10회</t>
-  </si>
-  <si>
-    <t>계정당 30회</t>
   </si>
   <si>
     <t>제한없음</t>
@@ -486,7 +488,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,7 +1129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1430,12 +1432,12 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="A20:S24"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="7" width="9" style="8"/>
     <col min="8" max="8" width="11.125" style="8" customWidth="1"/>
@@ -1455,7 +1457,7 @@
     <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="7:25" ht="16.5">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1508,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="7:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:25" ht="16.5" customHeight="1">
       <c r="H2" s="5">
         <v>150</v>
       </c>
@@ -1546,7 +1548,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:25" ht="16.5">
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1572,7 +1574,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:25" ht="16.5">
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1598,7 +1600,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:25" ht="16.5">
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1624,7 +1626,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:25" ht="16.5">
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1650,7 +1652,7 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:25" ht="16.5">
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1676,7 +1678,7 @@
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:25" ht="16.5">
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1702,7 +1704,7 @@
       <c r="X8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:25" ht="16.5">
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1728,7 +1730,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:25" ht="16.5">
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1754,7 +1756,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:25" ht="16.5">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1780,7 +1782,7 @@
       <c r="X11"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:25" ht="16.5">
       <c r="H12" s="7">
         <v>370</v>
       </c>
@@ -1822,7 +1824,7 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:25" ht="16.5">
       <c r="H13" s="7"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
@@ -1850,7 +1852,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:25" ht="16.5">
       <c r="H14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
@@ -1878,7 +1880,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:25" ht="16.5">
       <c r="H15" s="7"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
@@ -1906,7 +1908,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:25" ht="16.5">
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
@@ -1934,7 +1936,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:25" ht="16.5">
       <c r="H17" s="7"/>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
@@ -1962,7 +1964,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:25" ht="16.5">
       <c r="H18" s="7"/>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
@@ -1990,7 +1992,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H19" s="17">
         <v>371</v>
       </c>
@@ -2032,7 +2034,7 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
     </row>
-    <row r="20" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
       <c r="J20" s="17"/>
@@ -2060,7 +2062,7 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
     </row>
-    <row r="21" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -2088,7 +2090,7 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
     </row>
-    <row r="22" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -2116,7 +2118,7 @@
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
     </row>
-    <row r="23" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -2144,7 +2146,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
     </row>
-    <row r="24" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -2172,7 +2174,7 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
     </row>
-    <row r="25" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -2200,7 +2202,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
     </row>
-    <row r="26" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:25" ht="16.5">
       <c r="H26" s="7">
         <v>30012</v>
       </c>
@@ -2238,7 +2240,7 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H27" s="17">
         <v>20008</v>
       </c>
@@ -2278,7 +2280,7 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
     </row>
-    <row r="28" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="22"/>
@@ -2306,7 +2308,7 @@
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
     </row>
-    <row r="29" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
@@ -2334,7 +2336,7 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="21"/>
     </row>
-    <row r="30" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -2362,7 +2364,7 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="21"/>
     </row>
-    <row r="31" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -2390,7 +2392,7 @@
       <c r="X31" s="21"/>
       <c r="Y31" s="21"/>
     </row>
-    <row r="32" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -2418,7 +2420,7 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="21"/>
     </row>
-    <row r="33" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="22"/>
@@ -2446,7 +2448,7 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="21"/>
     </row>
-    <row r="34" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="22"/>
@@ -2474,7 +2476,7 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="21"/>
     </row>
-    <row r="35" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:25" ht="16.5">
       <c r="H35" s="7">
         <v>1104</v>
       </c>
@@ -2512,7 +2514,7 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:25" ht="16.5">
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="11"/>
@@ -2536,7 +2538,7 @@
       <c r="X36"/>
       <c r="Y36"/>
     </row>
-    <row r="37" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:25" ht="16.5">
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="11"/>
@@ -2560,7 +2562,7 @@
       <c r="X37"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:25" ht="16.5">
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="11"/>
@@ -2584,7 +2586,7 @@
       <c r="X38"/>
       <c r="Y38"/>
     </row>
-    <row r="39" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:25" ht="16.5">
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="11"/>
@@ -2608,7 +2610,7 @@
       <c r="X39"/>
       <c r="Y39"/>
     </row>
-    <row r="40" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:25" ht="16.5">
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="11"/>
@@ -2632,7 +2634,7 @@
       <c r="X40"/>
       <c r="Y40"/>
     </row>
-    <row r="41" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H41" s="17">
         <v>1105</v>
       </c>
@@ -2670,7 +2672,7 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
     </row>
-    <row r="42" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="22"/>
@@ -2694,7 +2696,7 @@
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
     </row>
-    <row r="43" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="22"/>
@@ -2718,7 +2720,7 @@
       <c r="X43" s="21"/>
       <c r="Y43" s="21"/>
     </row>
-    <row r="44" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="22"/>
@@ -2742,7 +2744,7 @@
       <c r="X44" s="21"/>
       <c r="Y44" s="21"/>
     </row>
-    <row r="45" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -2766,7 +2768,7 @@
       <c r="X45" s="21"/>
       <c r="Y45" s="21"/>
     </row>
-    <row r="46" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -2800,17 +2802,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80965D8C-95CD-4DB4-8273-D31B107E6B71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D543B-B92D-41B7-A8E2-CE0700229979}">
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -2830,7 +2832,7 @@
     <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +2879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1">
       <c r="B2" s="5">
         <v>200013</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -2902,7 +2904,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L2" s="6">
         <v>2</v>
@@ -2911,7 +2913,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2922,7 +2924,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" s="5">
         <v>2</v>
@@ -2931,7 +2933,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2942,7 +2944,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" s="5">
         <v>5</v>
@@ -2951,7 +2953,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2962,7 +2964,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L5" s="5">
         <v>10</v>
@@ -2971,7 +2973,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2982,7 +2984,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L6" s="5">
         <v>5</v>
@@ -2991,7 +2993,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3002,7 +3004,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
@@ -3011,7 +3013,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3022,7 +3024,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -3031,7 +3033,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3042,7 +3044,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" s="5">
         <v>1</v>
@@ -3051,7 +3053,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3062,7 +3064,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -3071,7 +3073,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3082,7 +3084,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
@@ -3091,7 +3093,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="16" customFormat="1">
       <c r="B12" s="17">
         <v>200014</v>
       </c>
@@ -3129,7 +3131,7 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
     </row>
-    <row r="13" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="16" customFormat="1">
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
@@ -3153,7 +3155,7 @@
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
     </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="16" customFormat="1">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
@@ -3177,7 +3179,7 @@
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
     </row>
-    <row r="15" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="16" customFormat="1">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17"/>
@@ -3201,7 +3203,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
     </row>
-    <row r="16" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="16" customFormat="1">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="17"/>
@@ -3225,7 +3227,7 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
     </row>
-    <row r="17" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" s="16" customFormat="1">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -3249,7 +3251,7 @@
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
     </row>
-    <row r="18" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" s="16" customFormat="1">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -3273,7 +3275,7 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
     </row>
-    <row r="19" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" s="16" customFormat="1">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -3297,7 +3299,7 @@
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
     </row>
-    <row r="20" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" s="16" customFormat="1">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -3321,7 +3323,7 @@
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" s="16" customFormat="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -3345,7 +3347,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20">
       <c r="B22" s="7">
         <v>202015</v>
       </c>
@@ -3353,7 +3355,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -3372,7 +3374,7 @@
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7">
         <v>5</v>
@@ -3381,7 +3383,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -3390,11 +3392,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L23" s="7">
         <v>5</v>
@@ -3403,7 +3405,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -3416,7 +3418,7 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L24" s="7">
         <v>5</v>
@@ -3425,7 +3427,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -3434,11 +3436,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L25" s="7">
         <v>5</v>
@@ -3447,7 +3449,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -3456,11 +3458,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L26" s="7">
         <v>5</v>
@@ -3469,7 +3471,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -3482,7 +3484,7 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L27" s="7">
         <v>5</v>
@@ -3491,7 +3493,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -3500,11 +3502,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7">
         <v>10</v>
@@ -3513,7 +3515,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" s="16" customFormat="1">
       <c r="B29" s="17">
         <v>202016</v>
       </c>
@@ -3553,7 +3555,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" s="16" customFormat="1">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="17"/>
@@ -3566,7 +3568,7 @@
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L30" s="17">
         <v>1</v>
@@ -3579,7 +3581,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" s="16" customFormat="1">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3588,11 +3590,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L31" s="17">
         <v>1</v>
@@ -3605,7 +3607,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" s="16" customFormat="1">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3614,11 +3616,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L32" s="17">
         <v>2</v>
@@ -3631,7 +3633,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" s="16" customFormat="1">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3640,11 +3642,11 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L33" s="17">
         <v>2</v>
@@ -3657,7 +3659,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" s="16" customFormat="1">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3666,7 +3668,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
@@ -3683,7 +3685,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" s="16" customFormat="1">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3692,7 +3694,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
@@ -3709,7 +3711,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" spans="2:20" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" s="16" customFormat="1" ht="41.25">
       <c r="B36" s="17">
         <v>999999</v>
       </c>
@@ -3732,24 +3734,24 @@
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N36" s="17">
         <v>600000</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
     </row>
-    <row r="37" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" s="16" customFormat="1">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="22"/>
@@ -3760,24 +3762,24 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N37" s="17">
         <v>450000</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
     </row>
-    <row r="38" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" s="16" customFormat="1">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -3788,11 +3790,1025 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="N38" s="17">
+        <v>20000</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:T38" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80965D8C-95CD-4DB4-8273-D31B107E6B71}">
+  <dimension ref="A1:T38"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+      <c r="B2" s="5">
+        <v>200013</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45027</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45041</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="5">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" s="16" customFormat="1">
+      <c r="B12" s="17">
+        <v>200014</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="19">
+        <v>45041</v>
+      </c>
+      <c r="H12" s="20">
+        <v>45055</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="17">
+        <v>5</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+    </row>
+    <row r="13" spans="1:20" s="16" customFormat="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="17">
+        <v>5</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+    </row>
+    <row r="14" spans="1:20" s="16" customFormat="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="17">
+        <v>10</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="1:20" s="16" customFormat="1">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="17">
+        <v>5</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+    </row>
+    <row r="16" spans="1:20" s="16" customFormat="1">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="17">
+        <v>1</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="2:20" s="16" customFormat="1">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="2:20" s="16" customFormat="1">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="17">
+        <v>3</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="2:20" s="16" customFormat="1">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="17">
+        <v>2</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="2:20" s="16" customFormat="1">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="17">
+        <v>2</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+    </row>
+    <row r="21" spans="2:20" s="16" customFormat="1">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="17">
+        <v>3</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="7">
+        <v>202015</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9">
+        <v>45027</v>
+      </c>
+      <c r="H22" s="9">
+        <v>45041</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="7">
+        <v>5</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="7">
+        <v>5</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="7">
+        <v>5</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7">
+        <v>5</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="7">
+        <v>5</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="7">
+        <v>5</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="7">
+        <v>10</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="2:20" s="16" customFormat="1">
+      <c r="B29" s="17">
+        <v>202016</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="19">
+        <v>45041</v>
+      </c>
+      <c r="H29" s="20">
+        <v>45055</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" s="17">
+        <v>5</v>
+      </c>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+    </row>
+    <row r="30" spans="2:20" s="16" customFormat="1">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="17">
+        <v>1</v>
+      </c>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+    </row>
+    <row r="31" spans="2:20" s="16" customFormat="1">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="17">
+        <v>1</v>
+      </c>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+    </row>
+    <row r="32" spans="2:20" s="16" customFormat="1">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L32" s="17">
+        <v>2</v>
+      </c>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+    </row>
+    <row r="33" spans="2:20" s="16" customFormat="1">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L33" s="17">
+        <v>2</v>
+      </c>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+    </row>
+    <row r="34" spans="2:20" s="16" customFormat="1">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L34" s="17">
+        <v>10</v>
+      </c>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+    </row>
+    <row r="35" spans="2:20" s="16" customFormat="1">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35" s="17">
+        <v>1</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+    </row>
+    <row r="36" spans="2:20" s="16" customFormat="1" ht="40.5">
+      <c r="B36" s="17">
+        <v>999999</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="20">
+        <v>45027</v>
+      </c>
+      <c r="H36" s="20">
+        <v>45041</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17" t="s">
         <v>130</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N36" s="17">
+        <v>600000</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+    </row>
+    <row r="37" spans="2:20" s="16" customFormat="1">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="N37" s="17">
+        <v>450000</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+    </row>
+    <row r="38" spans="2:20" s="16" customFormat="1">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="N38" s="17">
         <v>20000</v>
@@ -4046,28 +5062,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
-    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
 </file>
--- a/이벤트DATA_TW.xlsx
+++ b/이벤트DATA_TW.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E74DDAC-8E11-46CD-905F-D024BE4CF71D}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76B0726F-52BB-43C9-9032-466075433597}"/>
   <bookViews>
-    <workbookView xWindow="30030" yWindow="420" windowWidth="22440" windowHeight="14130" firstSheet="1" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="5" r:id="rId1"/>
-    <sheet name="230411 업데이트 (2)" sheetId="6" r:id="rId2"/>
+    <sheet name="230516 업데이트" sheetId="6" r:id="rId2"/>
     <sheet name="230411 업데이트" sheetId="3" r:id="rId3"/>
+    <sheet name="템플릿(복사해서사용)" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230411 업데이트'!$B$1:$T$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230411 업데이트 (2)'!$B$1:$T$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230516 업데이트'!$B$1:$T$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$U$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'템플릿(복사해서사용)'!$B$1:$T$38</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="202">
   <si>
     <t>최종수정일</t>
   </si>
@@ -332,6 +334,168 @@
     <t>마법 공격력</t>
   </si>
   <si>
+    <t>통합 길드전 오픈 기념 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t>1일차</t>
+  </si>
+  <si>
+    <t>투사의 증표</t>
+  </si>
+  <si>
+    <t>2일차</t>
+  </si>
+  <si>
+    <t>특별한 모둠 꼬치구이[이벤트]</t>
+  </si>
+  <si>
+    <t>3일차</t>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[고급]</t>
+  </si>
+  <si>
+    <t>4일차</t>
+  </si>
+  <si>
+    <t>5일차</t>
+  </si>
+  <si>
+    <t>최상급 아드레날린 증폭 포션</t>
+  </si>
+  <si>
+    <t>6일차</t>
+  </si>
+  <si>
+    <t>골드 지원 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>7일차</t>
+  </si>
+  <si>
+    <t>8일차</t>
+  </si>
+  <si>
+    <t>9일차</t>
+  </si>
+  <si>
+    <t>장비 각인석[이벤트]</t>
+  </si>
+  <si>
+    <t>10일차</t>
+  </si>
+  <si>
+    <t>R2:重燃戰火 300일 감사의 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t>콜포트의 축복[이벤트]</t>
+  </si>
+  <si>
+    <t>특별한 비약 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>상급 아드레날린 증폭 포션</t>
+  </si>
+  <si>
+    <t>상급 회복의 마법 주문서</t>
+  </si>
+  <si>
+    <t>상급 전투의 마법 주문서</t>
+  </si>
+  <si>
+    <t>300일 기념 선물 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르 사냥 계약서[1시간][이벤트]</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르 성장 계약서[1시간][이벤트]</t>
+  </si>
+  <si>
+    <t>시간의 모래 주머니[이벤트]</t>
+  </si>
+  <si>
+    <t>영웅을 위한 장비 제작 지원 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 강화 성공 100회</t>
+  </si>
+  <si>
+    <t>특별한 이벤트 제작 코인[이벤트]</t>
+  </si>
+  <si>
+    <t>아이템 제작 성공 30회</t>
+  </si>
+  <si>
+    <t>변신 획득 25회</t>
+  </si>
+  <si>
+    <t>서번트 획득 25회</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 미션 완료 </t>
+  </si>
+  <si>
+    <t>버터클과 함께하는 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,030,303 골드 소모</t>
+  </si>
+  <si>
+    <t>변신의 돌 30회 소모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상급 변신 뽑기권[이벤트] </t>
+  </si>
+  <si>
+    <t>서번트 소환의 돌 30회 소모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상급 서번트 뽑기권[이벤트] </t>
+  </si>
+  <si>
+    <t>변신 합성 20회 시도</t>
+  </si>
+  <si>
+    <t>서번트 합성 20회 시도</t>
+  </si>
+  <si>
+    <t>일일 미션 30회 수행</t>
+  </si>
+  <si>
+    <t>길드 코인 상자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">클래스 전용 매터리얼 상자[이벤트] </t>
+  </si>
+  <si>
+    <t>영웅을 위한 장비 제작 지원 미션 이벤트로 얻은 특별한 이벤트 제작 코인[이벤트]를 활용하여 원하는 아이템 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별한 제작 재료 상자[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>특별한 이벤트 제작 코인[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>계정당 10회</t>
+  </si>
+  <si>
+    <t>영웅 장비 제작 비급서 조각 상자[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>계정당 30회</t>
+  </si>
+  <si>
+    <t>상급 아드레날린 증폭 포션 1개</t>
+  </si>
+  <si>
+    <t>제한없음</t>
+  </si>
+  <si>
     <t>일루미나의 성지 탐험 출석체크 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -370,9 +534,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>골드 지원 상자[이벤트]</t>
-  </si>
-  <si>
     <t>특별한 비약 상자</t>
   </si>
   <si>
@@ -394,91 +555,131 @@
     <t>무료 경험치 복구 주문서[이벤트]</t>
   </si>
   <si>
-    <t>장비 각인석[이벤트]</t>
-  </si>
-  <si>
     <t>고급 매터리얼 확정 상자</t>
   </si>
   <si>
-    <t>영웅을 위한 장비 제작 지원 미션 이벤트</t>
+    <t xml:space="preserve">통합 길드전 오픈 기념 미션 이벤트 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 강화 성공 100회</t>
-  </si>
-  <si>
-    <t>특별한 이벤트 제작 코인[이벤트]</t>
-  </si>
-  <si>
-    <t>아이템 제작 성공 30회</t>
-  </si>
-  <si>
-    <t>변신 획득 25회</t>
-  </si>
-  <si>
-    <t>서번트 획득 25회</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 미션 완료 </t>
-  </si>
-  <si>
-    <t>버터클과 함께하는 미션 이벤트</t>
+    <t>R2:重燃戰火 300일 기념 미션 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3,030,303 골드 소모</t>
-  </si>
-  <si>
-    <t>변신의 돌 30회 소모</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상급 변신 뽑기권[이벤트] </t>
-  </si>
-  <si>
-    <t>서번트 소환의 돌 30회 소모</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상급 서번트 뽑기권[이벤트] </t>
-  </si>
-  <si>
-    <t>변신 합성 20회 시도</t>
-  </si>
-  <si>
-    <t>서번트 합성 20회 시도</t>
-  </si>
-  <si>
-    <t>일일 미션 30회 수행</t>
-  </si>
-  <si>
-    <t>길드 코인 상자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">클래스 전용 매터리얼 상자[이벤트] </t>
-  </si>
-  <si>
-    <t>영웅을 위한 장비 제작 지원 미션 이벤트로 얻은 특별한 이벤트 제작 코인[이벤트]를 활용하여 원하는 아이템 제작</t>
+    <t>아무 장비나 강화 30회 시도</t>
+  </si>
+  <si>
+    <t>변신 합성 10회</t>
+  </si>
+  <si>
+    <t>체력 회복 포션 5,000회 사용</t>
+  </si>
+  <si>
+    <t>서번트 합성 10회</t>
+  </si>
+  <si>
+    <t>아이템 분해 30회</t>
+  </si>
+  <si>
+    <t>마물 23,521마리 처치</t>
+  </si>
+  <si>
+    <t>서번트의 돌 30회 소모</t>
+  </si>
+  <si>
+    <t>변신 획득 30회</t>
+  </si>
+  <si>
+    <t>서번트 획득 30회</t>
+  </si>
+  <si>
+    <t>일일 미션 30회 완료</t>
+  </si>
+  <si>
+    <t>일반 매터리얼 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>매터리얼 상자[일반~고급][이벤트]</t>
+  </si>
+  <si>
+    <t>상급 행운의 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>상급 변신 강화 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>상급 클래스 전용 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>상급 매터리얼 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>고급 매터리얼 확정 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권</t>
+  </si>
+  <si>
+    <t>고급 희귀 서번트 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>고급~희귀 변신 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>고급 서번트 확정 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>고급 변신 확정 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회]</t>
+  </si>
+  <si>
+    <t>통합 길드전 제작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>특별한 제작 재료 상자[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>특별한 이벤트 제작 코인[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>계정당 10회</t>
-  </si>
-  <si>
-    <t>영웅 장비 제작 비급서 조각 상자[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>계정당 30회</t>
-  </si>
-  <si>
-    <t>상급 아드레날린 증폭 포션 1개</t>
-  </si>
-  <si>
-    <t>제한없음</t>
+    <t>귀속된 태초의 흔적 상자</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회]</t>
+  </si>
+  <si>
+    <t>서번트 포인트 충전석[고급]</t>
+  </si>
+  <si>
+    <t>변신 포인트 충전석[고급]</t>
+  </si>
+  <si>
+    <t>시간의 모래 주머니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사의 증표 120개</t>
+  </si>
+  <si>
+    <t>투사의 증표 30개</t>
+  </si>
+  <si>
+    <t>투사의 증표 5개</t>
+  </si>
+  <si>
+    <t>투사의 증표 1개</t>
+  </si>
+  <si>
+    <t>계정 당 1회</t>
+  </si>
+  <si>
+    <t>계정 당 2회</t>
+  </si>
+  <si>
+    <t>계정 당 5회</t>
+  </si>
+  <si>
+    <t>계정 당 30회</t>
   </si>
 </sst>
 </file>
@@ -488,7 +689,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,6 +1043,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1128,8 +1353,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1431,13 +1660,13 @@
   <dimension ref="G1:Y46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="S20" sqref="A20:S24"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="S20" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="9" style="8"/>
     <col min="8" max="8" width="11.125" style="8" customWidth="1"/>
@@ -1457,7 +1686,7 @@
     <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:25" ht="16.5">
+    <row r="1" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1737,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="7:25" ht="16.5" customHeight="1">
+    <row r="2" spans="7:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="5">
         <v>150</v>
       </c>
@@ -1548,7 +1777,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="7:25" ht="16.5">
+    <row r="3" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1574,7 +1803,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="7:25" ht="16.5">
+    <row r="4" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1600,7 +1829,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="7:25" ht="16.5">
+    <row r="5" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1626,7 +1855,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="7:25" ht="16.5">
+    <row r="6" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1652,7 +1881,7 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="7:25" ht="16.5">
+    <row r="7" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1678,7 +1907,7 @@
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="7:25" ht="16.5">
+    <row r="8" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1704,7 +1933,7 @@
       <c r="X8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="7:25" ht="16.5">
+    <row r="9" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1730,7 +1959,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="7:25" ht="16.5">
+    <row r="10" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1756,7 +1985,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="7:25" ht="16.5">
+    <row r="11" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1782,7 +2011,7 @@
       <c r="X11"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="7:25" ht="16.5">
+    <row r="12" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H12" s="7">
         <v>370</v>
       </c>
@@ -1824,7 +2053,7 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="7:25" ht="16.5">
+    <row r="13" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H13" s="7"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
@@ -1852,7 +2081,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="7:25" ht="16.5">
+    <row r="14" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
@@ -1880,7 +2109,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="7:25" ht="16.5">
+    <row r="15" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H15" s="7"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
@@ -1908,7 +2137,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="7:25" ht="16.5">
+    <row r="16" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
@@ -1936,7 +2165,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="8:25" ht="16.5">
+    <row r="17" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H17" s="7"/>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
@@ -1964,7 +2193,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="8:25" ht="16.5">
+    <row r="18" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H18" s="7"/>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
@@ -1992,7 +2221,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="19" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H19" s="17">
         <v>371</v>
       </c>
@@ -2034,7 +2263,7 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
     </row>
-    <row r="20" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="20" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
       <c r="J20" s="17"/>
@@ -2062,7 +2291,7 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
     </row>
-    <row r="21" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="21" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -2090,7 +2319,7 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
     </row>
-    <row r="22" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="22" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -2118,7 +2347,7 @@
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
     </row>
-    <row r="23" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="23" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -2146,7 +2375,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
     </row>
-    <row r="24" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="24" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -2174,7 +2403,7 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
     </row>
-    <row r="25" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="25" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -2202,7 +2431,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
     </row>
-    <row r="26" spans="8:25" ht="16.5">
+    <row r="26" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H26" s="7">
         <v>30012</v>
       </c>
@@ -2240,7 +2469,7 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="27" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H27" s="17">
         <v>20008</v>
       </c>
@@ -2280,7 +2509,7 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
     </row>
-    <row r="28" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="28" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="22"/>
@@ -2308,7 +2537,7 @@
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
     </row>
-    <row r="29" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="29" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
@@ -2336,7 +2565,7 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="21"/>
     </row>
-    <row r="30" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="30" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -2364,7 +2593,7 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="21"/>
     </row>
-    <row r="31" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="31" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -2392,7 +2621,7 @@
       <c r="X31" s="21"/>
       <c r="Y31" s="21"/>
     </row>
-    <row r="32" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="32" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -2420,7 +2649,7 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="21"/>
     </row>
-    <row r="33" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="33" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="22"/>
@@ -2448,7 +2677,7 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="21"/>
     </row>
-    <row r="34" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="34" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="22"/>
@@ -2476,7 +2705,7 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="21"/>
     </row>
-    <row r="35" spans="8:25" ht="16.5">
+    <row r="35" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H35" s="7">
         <v>1104</v>
       </c>
@@ -2514,7 +2743,7 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="8:25" ht="16.5">
+    <row r="36" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="11"/>
@@ -2538,7 +2767,7 @@
       <c r="X36"/>
       <c r="Y36"/>
     </row>
-    <row r="37" spans="8:25" ht="16.5">
+    <row r="37" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="11"/>
@@ -2562,7 +2791,7 @@
       <c r="X37"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="8:25" ht="16.5">
+    <row r="38" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="11"/>
@@ -2586,7 +2815,7 @@
       <c r="X38"/>
       <c r="Y38"/>
     </row>
-    <row r="39" spans="8:25" ht="16.5">
+    <row r="39" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="11"/>
@@ -2610,7 +2839,7 @@
       <c r="X39"/>
       <c r="Y39"/>
     </row>
-    <row r="40" spans="8:25" ht="16.5">
+    <row r="40" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="11"/>
@@ -2634,7 +2863,7 @@
       <c r="X40"/>
       <c r="Y40"/>
     </row>
-    <row r="41" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="41" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H41" s="17">
         <v>1105</v>
       </c>
@@ -2672,7 +2901,7 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
     </row>
-    <row r="42" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="42" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="22"/>
@@ -2696,7 +2925,7 @@
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
     </row>
-    <row r="43" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="43" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="22"/>
@@ -2720,7 +2949,7 @@
       <c r="X43" s="21"/>
       <c r="Y43" s="21"/>
     </row>
-    <row r="44" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="44" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="22"/>
@@ -2744,7 +2973,7 @@
       <c r="X44" s="21"/>
       <c r="Y44" s="21"/>
     </row>
-    <row r="45" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="45" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -2768,7 +2997,7 @@
       <c r="X45" s="21"/>
       <c r="Y45" s="21"/>
     </row>
-    <row r="46" spans="8:25" s="16" customFormat="1" ht="16.5">
+    <row r="46" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -2803,16 +3032,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D543B-B92D-41B7-A8E2-CE0700229979}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -2832,7 +3061,7 @@
     <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2879,9 +3108,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
-        <v>200013</v>
+        <v>200015</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
@@ -2896,24 +3125,26 @@
         <v>18</v>
       </c>
       <c r="G2" s="9">
-        <v>45027</v>
+        <v>45062</v>
       </c>
       <c r="H2" s="9">
-        <v>45041</v>
-      </c>
-      <c r="I2" s="5"/>
+        <v>45076</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2921,19 +3152,21 @@
       <c r="F3" s="5"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L3" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2941,19 +3174,21 @@
       <c r="F4" s="5"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L4" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2961,19 +3196,21 @@
       <c r="F5" s="5"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L5" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2981,19 +3218,21 @@
       <c r="F6" s="5"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L6" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3001,19 +3240,21 @@
       <c r="F7" s="5"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L7" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3021,10 +3262,12 @@
       <c r="F8" s="5"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -3033,7 +3276,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3041,19 +3284,21 @@
       <c r="F9" s="5"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3061,10 +3306,12 @@
       <c r="F10" s="5"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -3073,7 +3320,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3081,27 +3328,29 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="16" customFormat="1">
+    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
-        <v>200014</v>
+        <v>200016</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -3110,18 +3359,20 @@
         <v>18</v>
       </c>
       <c r="G12" s="19">
-        <v>45041</v>
+        <v>45062</v>
       </c>
       <c r="H12" s="20">
-        <v>45055</v>
-      </c>
-      <c r="I12" s="17"/>
+        <v>45076</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L12" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
@@ -3131,7 +3382,7 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
     </row>
-    <row r="13" spans="1:20" s="16" customFormat="1">
+    <row r="13" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
@@ -3139,13 +3390,15 @@
       <c r="F13" s="17"/>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L13" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
@@ -3155,7 +3408,7 @@
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
     </row>
-    <row r="14" spans="1:20" s="16" customFormat="1">
+    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
@@ -3163,13 +3416,15 @@
       <c r="F14" s="17"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="17" t="s">
+        <v>94</v>
+      </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L14" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -3179,7 +3434,7 @@
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
     </row>
-    <row r="15" spans="1:20" s="16" customFormat="1">
+    <row r="15" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17"/>
@@ -3187,13 +3442,15 @@
       <c r="F15" s="17"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L15" s="17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -3203,7 +3460,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
     </row>
-    <row r="16" spans="1:20" s="16" customFormat="1">
+    <row r="16" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="17"/>
@@ -3211,13 +3468,15 @@
       <c r="F16" s="17"/>
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L16" s="17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
@@ -3227,7 +3486,7 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
     </row>
-    <row r="17" spans="2:20" s="16" customFormat="1">
+    <row r="17" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -3235,10 +3494,12 @@
       <c r="F17" s="17"/>
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
@@ -3251,7 +3512,7 @@
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
     </row>
-    <row r="18" spans="2:20" s="16" customFormat="1">
+    <row r="18" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -3259,10 +3520,12 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -3275,7 +3538,7 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
     </row>
-    <row r="19" spans="2:20" s="16" customFormat="1">
+    <row r="19" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -3283,13 +3546,15 @@
       <c r="F19" s="17"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L19" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
@@ -3299,7 +3564,7 @@
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
     </row>
-    <row r="20" spans="2:20" s="16" customFormat="1">
+    <row r="20" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -3307,13 +3572,15 @@
       <c r="F20" s="17"/>
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L20" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -3323,7 +3590,7 @@
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" spans="2:20" s="16" customFormat="1">
+    <row r="21" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -3331,13 +3598,15 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L21" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -3347,15 +3616,15 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
-        <v>202015</v>
+        <v>202017</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -3364,26 +3633,26 @@
         <v>18</v>
       </c>
       <c r="G22" s="9">
-        <v>45027</v>
+        <v>45062</v>
       </c>
       <c r="H22" s="9">
-        <v>45041</v>
+        <v>45076</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="L22" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -3392,20 +3661,20 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="L23" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -3414,20 +3683,20 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="L24" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -3436,20 +3705,20 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -3458,20 +3727,20 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -3480,20 +3749,20 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
       <c r="I27" s="7" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="L27" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -3502,28 +3771,28 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:20" s="16" customFormat="1">
+    <row r="29" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17">
-        <v>202016</v>
+        <v>202018</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -3532,20 +3801,20 @@
         <v>18</v>
       </c>
       <c r="G29" s="19">
-        <v>45041</v>
+        <v>45062</v>
       </c>
       <c r="H29" s="20">
-        <v>45055</v>
+        <v>45076</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="L29" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
@@ -3555,7 +3824,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" spans="2:20" s="16" customFormat="1">
+    <row r="30" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="17"/>
@@ -3564,14 +3833,14 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="L30" s="17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
@@ -3581,7 +3850,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" spans="2:20" s="16" customFormat="1">
+    <row r="31" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3590,14 +3859,14 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="L31" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
@@ -3607,7 +3876,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" spans="2:20" s="16" customFormat="1">
+    <row r="32" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3616,14 +3885,14 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="L32" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
@@ -3633,7 +3902,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" spans="2:20" s="16" customFormat="1">
+    <row r="33" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3642,14 +3911,14 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="L33" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
@@ -3659,7 +3928,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" spans="2:20" s="16" customFormat="1">
+    <row r="34" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3668,14 +3937,14 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="L34" s="17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
@@ -3685,7 +3954,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" spans="2:20" s="16" customFormat="1">
+    <row r="35" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3694,14 +3963,14 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="L35" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
@@ -3711,104 +3980,340 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" spans="2:20" s="16" customFormat="1" ht="41.25">
-      <c r="B36" s="17">
-        <v>999999</v>
-      </c>
-      <c r="C36" s="17" t="s">
+    <row r="36" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="31">
+        <v>240004</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
+      <c r="D36" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="20">
-        <v>45027</v>
-      </c>
-      <c r="H36" s="20">
-        <v>45041</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="N36" s="17">
-        <v>600000</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-    </row>
-    <row r="37" spans="2:20" s="16" customFormat="1">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="N37" s="17">
-        <v>450000</v>
-      </c>
-      <c r="O37" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-    </row>
-    <row r="38" spans="2:20" s="16" customFormat="1">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="N38" s="17">
-        <v>20000</v>
-      </c>
-      <c r="O38" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
+      <c r="G36" s="33">
+        <v>45062</v>
+      </c>
+      <c r="H36" s="33">
+        <v>45090</v>
+      </c>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="L36" s="31">
+        <v>1</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="N36" s="31">
+        <v>0</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+    </row>
+    <row r="37" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="L37" s="31">
+        <v>1</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="N37" s="31">
+        <v>0</v>
+      </c>
+      <c r="O37" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+    </row>
+    <row r="38" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="L38" s="31">
+        <v>1</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="N38" s="31">
+        <v>0</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+    </row>
+    <row r="39" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" s="31">
+        <v>5</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="N39" s="31">
+        <v>0</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+    </row>
+    <row r="40" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="L40" s="31">
+        <v>1</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="N40" s="31">
+        <v>0</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+    </row>
+    <row r="41" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="L41" s="31">
+        <v>1</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="N41" s="31">
+        <v>0</v>
+      </c>
+      <c r="O41" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+    </row>
+    <row r="42" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+    </row>
+    <row r="43" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+    </row>
+    <row r="44" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+    </row>
+    <row r="45" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+    </row>
+    <row r="46" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+    </row>
+    <row r="47" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+    </row>
+    <row r="48" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:T38" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <autoFilter ref="B1:T48" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
@@ -3820,13 +4325,13 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -3846,7 +4351,7 @@
     <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +4398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>200013</v>
       </c>
@@ -3901,7 +4406,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -3918,7 +4423,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="L2" s="6">
         <v>2</v>
@@ -3927,7 +4432,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3938,7 +4443,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L3" s="5">
         <v>2</v>
@@ -3947,7 +4452,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3958,7 +4463,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="L4" s="5">
         <v>5</v>
@@ -3967,7 +4472,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3978,7 +4483,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="L5" s="5">
         <v>10</v>
@@ -3987,7 +4492,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3998,7 +4503,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="L6" s="5">
         <v>5</v>
@@ -4007,7 +4512,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4018,7 +4523,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
@@ -4027,7 +4532,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4038,7 +4543,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -4047,7 +4552,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4058,7 +4563,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="L9" s="5">
         <v>1</v>
@@ -4067,7 +4572,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4078,7 +4583,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -4087,7 +4592,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4098,7 +4603,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
@@ -4107,7 +4612,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="16" customFormat="1">
+    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <v>200014</v>
       </c>
@@ -4115,7 +4620,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -4132,7 +4637,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L12" s="17">
         <v>5</v>
@@ -4145,7 +4650,7 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
     </row>
-    <row r="13" spans="1:20" s="16" customFormat="1">
+    <row r="13" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
@@ -4156,7 +4661,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="L13" s="17">
         <v>5</v>
@@ -4169,7 +4674,7 @@
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
     </row>
-    <row r="14" spans="1:20" s="16" customFormat="1">
+    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
@@ -4180,7 +4685,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="L14" s="17">
         <v>10</v>
@@ -4193,7 +4698,7 @@
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
     </row>
-    <row r="15" spans="1:20" s="16" customFormat="1">
+    <row r="15" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17"/>
@@ -4204,7 +4709,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="L15" s="17">
         <v>5</v>
@@ -4217,7 +4722,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
     </row>
-    <row r="16" spans="1:20" s="16" customFormat="1">
+    <row r="16" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="17"/>
@@ -4228,7 +4733,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="L16" s="17">
         <v>1</v>
@@ -4241,7 +4746,7 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
     </row>
-    <row r="17" spans="2:20" s="16" customFormat="1">
+    <row r="17" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -4252,7 +4757,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
@@ -4265,7 +4770,7 @@
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
     </row>
-    <row r="18" spans="2:20" s="16" customFormat="1">
+    <row r="18" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -4276,7 +4781,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -4289,7 +4794,7 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
     </row>
-    <row r="19" spans="2:20" s="16" customFormat="1">
+    <row r="19" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -4300,7 +4805,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="L19" s="17">
         <v>2</v>
@@ -4313,7 +4818,7 @@
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
     </row>
-    <row r="20" spans="2:20" s="16" customFormat="1">
+    <row r="20" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -4324,7 +4829,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L20" s="17">
         <v>2</v>
@@ -4337,7 +4842,7 @@
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" spans="2:20" s="16" customFormat="1">
+    <row r="21" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -4348,7 +4853,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="L21" s="17">
         <v>3</v>
@@ -4361,7 +4866,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>202015</v>
       </c>
@@ -4369,7 +4874,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -4384,11 +4889,11 @@
         <v>45041</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7">
         <v>5</v>
@@ -4397,7 +4902,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -4406,11 +4911,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L23" s="7">
         <v>5</v>
@@ -4419,7 +4924,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -4432,7 +4937,7 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L24" s="7">
         <v>5</v>
@@ -4441,7 +4946,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -4450,11 +4955,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7">
         <v>5</v>
@@ -4463,7 +4968,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -4472,11 +4977,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7">
         <v>5</v>
@@ -4485,7 +4990,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -4498,7 +5003,7 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L27" s="7">
         <v>5</v>
@@ -4507,7 +5012,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -4516,11 +5021,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L28" s="7">
         <v>10</v>
@@ -4529,7 +5034,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:20" s="16" customFormat="1">
+    <row r="29" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17">
         <v>202016</v>
       </c>
@@ -4537,7 +5042,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -4552,11 +5057,11 @@
         <v>45055</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L29" s="17">
         <v>5</v>
@@ -4569,7 +5074,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" spans="2:20" s="16" customFormat="1">
+    <row r="30" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="17"/>
@@ -4578,11 +5083,11 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L30" s="17">
         <v>1</v>
@@ -4595,7 +5100,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" spans="2:20" s="16" customFormat="1">
+    <row r="31" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -4604,11 +5109,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L31" s="17">
         <v>1</v>
@@ -4621,7 +5126,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" spans="2:20" s="16" customFormat="1">
+    <row r="32" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -4630,11 +5135,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L32" s="17">
         <v>2</v>
@@ -4647,7 +5152,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" spans="2:20" s="16" customFormat="1">
+    <row r="33" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -4656,11 +5161,11 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L33" s="17">
         <v>2</v>
@@ -4673,7 +5178,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" spans="2:20" s="16" customFormat="1">
+    <row r="34" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -4682,11 +5187,11 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L34" s="17">
         <v>10</v>
@@ -4699,7 +5204,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" spans="2:20" s="16" customFormat="1">
+    <row r="35" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -4708,11 +5213,11 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L35" s="17">
         <v>1</v>
@@ -4725,7 +5230,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" spans="2:20" s="16" customFormat="1" ht="40.5">
+    <row r="36" spans="2:20" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B36" s="17">
         <v>999999</v>
       </c>
@@ -4733,7 +5238,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
@@ -4748,24 +5253,24 @@
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="N36" s="17">
         <v>600000</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
     </row>
-    <row r="37" spans="2:20" s="16" customFormat="1">
+    <row r="37" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="22"/>
@@ -4776,24 +5281,24 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="23" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="N37" s="17">
         <v>450000</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
     </row>
-    <row r="38" spans="2:20" s="16" customFormat="1">
+    <row r="38" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -4804,17 +5309,17 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="N38" s="17">
         <v>20000</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
@@ -4826,6 +5331,1023 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B1469-5996-48F8-85D3-D2462F8567E4}">
+  <sheetPr>
+    <tabColor rgb="FF0D0D0D"/>
+  </sheetPr>
+  <dimension ref="A1:T38"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5">
+        <v>200013</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45027</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45041</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="6">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="5">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>200014</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="19">
+        <v>45041</v>
+      </c>
+      <c r="H12" s="20">
+        <v>45055</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="17">
+        <v>5</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+    </row>
+    <row r="13" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L13" s="17">
+        <v>5</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+    </row>
+    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" s="17">
+        <v>10</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" s="17">
+        <v>5</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+    </row>
+    <row r="16" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="17">
+        <v>1</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="17">
+        <v>3</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" s="17">
+        <v>2</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="17">
+        <v>2</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+    </row>
+    <row r="21" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" s="17">
+        <v>3</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>202015</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9">
+        <v>45027</v>
+      </c>
+      <c r="H22" s="9">
+        <v>45041</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="7">
+        <v>5</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="7">
+        <v>5</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" s="7">
+        <v>5</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="7">
+        <v>5</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L26" s="7">
+        <v>5</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27" s="7">
+        <v>5</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="7">
+        <v>10</v>
+      </c>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17">
+        <v>202016</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="19">
+        <v>45041</v>
+      </c>
+      <c r="H29" s="20">
+        <v>45055</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="17">
+        <v>5</v>
+      </c>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+    </row>
+    <row r="30" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" s="17">
+        <v>1</v>
+      </c>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+    </row>
+    <row r="31" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" s="17">
+        <v>1</v>
+      </c>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+    </row>
+    <row r="32" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32" s="17">
+        <v>2</v>
+      </c>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+    </row>
+    <row r="33" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33" s="17">
+        <v>2</v>
+      </c>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+    </row>
+    <row r="34" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" s="17">
+        <v>10</v>
+      </c>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+    </row>
+    <row r="35" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" s="17">
+        <v>1</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+    </row>
+    <row r="36" spans="2:20" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="17">
+        <v>999999</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="20">
+        <v>45027</v>
+      </c>
+      <c r="H36" s="20">
+        <v>45041</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N36" s="17">
+        <v>600000</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+    </row>
+    <row r="37" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="N37" s="17">
+        <v>450000</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+    </row>
+    <row r="38" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="N38" s="17">
+        <v>20000</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:T38" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5062,9 +6584,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
+    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/이벤트DATA_TW.xlsx
+++ b/이벤트DATA_TW.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76B0726F-52BB-43C9-9032-466075433597}"/>
+  <xr:revisionPtr revIDLastSave="672" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99A7CE36-13C8-4460-AD29-E675A6F1363A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="5" r:id="rId1"/>
-    <sheet name="230516 업데이트" sheetId="6" r:id="rId2"/>
-    <sheet name="230411 업데이트" sheetId="3" r:id="rId3"/>
-    <sheet name="템플릿(복사해서사용)" sheetId="7" r:id="rId4"/>
+    <sheet name="230613 업데이트" sheetId="8" r:id="rId2"/>
+    <sheet name="230516 업데이트" sheetId="6" r:id="rId3"/>
+    <sheet name="230411 업데이트" sheetId="3" r:id="rId4"/>
+    <sheet name="템플릿(복사해서사용)" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230411 업데이트'!$B$1:$T$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230516 업데이트'!$B$1:$T$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230411 업데이트'!$B$1:$T$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230516 업데이트'!$B$1:$T$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230613 업데이트'!$B$1:$U$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$U$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'템플릿(복사해서사용)'!$B$1:$T$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'템플릿(복사해서사용)'!$B$1:$U$38</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="270">
   <si>
     <t>최종수정일</t>
   </si>
@@ -334,6 +336,243 @@
     <t>마법 공격력</t>
   </si>
   <si>
+    <t>QuestID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단오절 기념 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상급 아드레날린 증폭 포션 </t>
+  </si>
+  <si>
+    <t>특별한 모둠 꼬치구이[이벤트]</t>
+  </si>
+  <si>
+    <t>용선</t>
+  </si>
+  <si>
+    <t>콜포트의 축복[이벤트]</t>
+  </si>
+  <si>
+    <t>특별한 비약 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[20%]</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르의 계약서[1시간][이벤트]</t>
+  </si>
+  <si>
+    <t>쫑즈[이벤트]</t>
+  </si>
+  <si>
+    <t>요일 던전 리뉴얼 기념 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t>전투의 마법 주문서</t>
+  </si>
+  <si>
+    <t>회복의 마법 주문서</t>
+  </si>
+  <si>
+    <t>시간의 모래 주머니</t>
+  </si>
+  <si>
+    <t>일반 서번트 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>일반 변신 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>단오절 기념 미션 이벤트</t>
+  </si>
+  <si>
+    <t>골드 6,220,000 소모</t>
+  </si>
+  <si>
+    <t>아무 마물 몬스터 23,622 마리 처치</t>
+  </si>
+  <si>
+    <t>아이템 강화 시도 22회</t>
+  </si>
+  <si>
+    <t>아이템 분해 시도 22회</t>
+  </si>
+  <si>
+    <t>아이템 제작 22회 성공</t>
+  </si>
+  <si>
+    <t>체력 회복 포션 6,220개 사용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 미션 완료 </t>
+  </si>
+  <si>
+    <t>요일 던전 리뉴얼 기념 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 미션 완료</t>
+  </si>
+  <si>
+    <t>탐사 완료 보상 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>헤라켄의 정원 마물 1,500마리 처치</t>
+  </si>
+  <si>
+    <t>빛나는 무기 강화 주문서 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>벨제뷔트의 정원 마물 1,500마리 처치</t>
+  </si>
+  <si>
+    <t>빛나는 방어구 강화 주문서 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>유게네스의 정원 마물 1,500마리 처치</t>
+  </si>
+  <si>
+    <t>빛나는 장신구 강화 주문서 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>가이아스의 정원 마물 600마리 처치</t>
+  </si>
+  <si>
+    <t>변신 포인트 충전석[고급]</t>
+  </si>
+  <si>
+    <t>시간의 모래 20개 사용</t>
+  </si>
+  <si>
+    <t>서번트 포인트 충전석[고급]</t>
+  </si>
+  <si>
+    <t>일일 미션 50회 완료</t>
+  </si>
+  <si>
+    <t>상급 매터리얼 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>각성한 영웅의 레벨 달성 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터당 1회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 91 달성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[전설][귀속] 1개, 서번트 합성 포인트 획득권[전설][귀속] 1개, 봉인된 영혼석[영웅][귀속] 20개</t>
+  </si>
+  <si>
+    <t>레벨 92 달성</t>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[영웅][귀속] 1개, 변신 합성 포인트 획득권[전설][귀속] 1개, 가이아스의 증표 Ⅵ[귀속] 1개</t>
+  </si>
+  <si>
+    <t>레벨 93 달성</t>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[영웅][귀속] 1개, 서번트 합성 포인트 획득권[전설][귀속] 1개, 희귀 매터리얼 확정 상자[이벤트][귀속] 5개</t>
+  </si>
+  <si>
+    <t>레벨 94 달성</t>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[영웅][귀속] 1개, 변신 합성 포인트 획득권[전설][귀속] 1개, 가이아스의 증표 Ⅶ[귀속] 1개</t>
+  </si>
+  <si>
+    <t>레벨 95 달성</t>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[전설][귀속] 1개, 매터리얼 합성 포인트 획득권[전설][귀속] 1개, 장인의 전설 제작 비급서 조각 상자[귀속] 10개</t>
+  </si>
+  <si>
+    <t>각성한 영웅 도감 Ⅰ</t>
+  </si>
+  <si>
+    <t>전체서버</t>
+  </si>
+  <si>
+    <t>마법 공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>도감</t>
+  </si>
+  <si>
+    <t>각성한 영웅 도감 Ⅱ</t>
+  </si>
+  <si>
+    <t>물리 피해 감소(근접)</t>
+  </si>
+  <si>
+    <t>물리 피해 감소(원거리)</t>
+  </si>
+  <si>
+    <t>단오절 기념 제작 이벤트</t>
+  </si>
+  <si>
+    <t>쫑즈 1개</t>
+  </si>
+  <si>
+    <t>용선 100개</t>
+  </si>
+  <si>
+    <t>고급~희귀 변신 뽑기권 1개</t>
+  </si>
+  <si>
+    <t>용선 30개</t>
+  </si>
+  <si>
+    <t>계정당 2회</t>
+  </si>
+  <si>
+    <t>고급~희귀 서번트 뽑기권 1개</t>
+  </si>
+  <si>
+    <t>장비 각인석 1개</t>
+  </si>
+  <si>
+    <t>용선 10개</t>
+  </si>
+  <si>
+    <t>계정당 10회</t>
+  </si>
+  <si>
+    <t>명예 코인 상자 10개</t>
+  </si>
+  <si>
+    <t>계정당 3회</t>
+  </si>
+  <si>
+    <t>로얄 코인 상자 10개</t>
+  </si>
+  <si>
+    <t>길드 코인 상자 10개</t>
+  </si>
+  <si>
+    <t>상급 회복의 마법 주문서 1개</t>
+  </si>
+  <si>
+    <t>용선 2개</t>
+  </si>
+  <si>
+    <t>제한 없음</t>
+  </si>
+  <si>
+    <t>상급 전투의 마법 주문서 1개</t>
+  </si>
+  <si>
     <t>통합 길드전 오픈 기념 출석체크 이벤트</t>
   </si>
   <si>
@@ -346,9 +585,6 @@
     <t>2일차</t>
   </si>
   <si>
-    <t>특별한 모둠 꼬치구이[이벤트]</t>
-  </si>
-  <si>
     <t>3일차</t>
   </si>
   <si>
@@ -388,12 +624,6 @@
     <t>R2:重燃戰火 300일 감사의 출석체크 이벤트</t>
   </si>
   <si>
-    <t>콜포트의 축복[이벤트]</t>
-  </si>
-  <si>
-    <t>특별한 비약 상자[이벤트]</t>
-  </si>
-  <si>
     <t>상급 아드레날린 증폭 포션</t>
   </si>
   <si>
@@ -413,6 +643,186 @@
   </si>
   <si>
     <t>시간의 모래 주머니[이벤트]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">통합 길드전 오픈 기념 미션 이벤트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 장비나 강화 30회 시도</t>
+  </si>
+  <si>
+    <t>일반 매터리얼 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>변신 합성 10회</t>
+  </si>
+  <si>
+    <t>매터리얼 상자[일반~고급][이벤트]</t>
+  </si>
+  <si>
+    <t>체력 회복 포션 5,000회 사용</t>
+  </si>
+  <si>
+    <t>상급 행운의 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>서번트 합성 10회</t>
+  </si>
+  <si>
+    <t>상급 변신 강화 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>아이템 분해 30회</t>
+  </si>
+  <si>
+    <t>상급 클래스 전용 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>일일 미션 30회 수행</t>
+  </si>
+  <si>
+    <t>고급 매터리얼 확정 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>R2:重燃戰火 300일 기념 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마물 23,521마리 처치</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권</t>
+  </si>
+  <si>
+    <t>변신의 돌 30회 소모</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권</t>
+  </si>
+  <si>
+    <t>서번트의 돌 30회 소모</t>
+  </si>
+  <si>
+    <t>고급 희귀 서번트 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>변신 획득 30회</t>
+  </si>
+  <si>
+    <t>고급~희귀 변신 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>서번트 획득 30회</t>
+  </si>
+  <si>
+    <t>고급 서번트 확정 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>일일 미션 30회 완료</t>
+  </si>
+  <si>
+    <t>고급 변신 확정 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회]</t>
+  </si>
+  <si>
+    <t>통합 길드전 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀속된 태초의 흔적 상자</t>
+  </si>
+  <si>
+    <t>투사의 증표 120개</t>
+  </si>
+  <si>
+    <t>계정 당 1회</t>
+  </si>
+  <si>
+    <t>투사의 증표 30개</t>
+  </si>
+  <si>
+    <t>계정 당 2회</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회]</t>
+  </si>
+  <si>
+    <t>시간의 모래 주머니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사의 증표 5개</t>
+  </si>
+  <si>
+    <t>계정 당 5회</t>
+  </si>
+  <si>
+    <t>투사의 증표 1개</t>
+  </si>
+  <si>
+    <t>계정 당 30회</t>
+  </si>
+  <si>
+    <t>일루미나의 성지 탐험 출석체크 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매터리얼 상자[일반~고급]</t>
+  </si>
+  <si>
+    <t>봉인된 영혼석[희귀]</t>
+  </si>
+  <si>
+    <t>무기 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>방어구 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>장신구 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>행운의 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>클래스 전용 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>변신 강화 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>장인의 희귀 제작 비급서 조각</t>
+  </si>
+  <si>
+    <t>축복받은 장비 각인석</t>
+  </si>
+  <si>
+    <t>버터클과 함께하는 출석체크 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별한 비약 상자</t>
+  </si>
+  <si>
+    <t>모험가를 위한 특선 요리</t>
+  </si>
+  <si>
+    <t>전투 지원 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>로얄 코인 상자</t>
+  </si>
+  <si>
+    <t>명예 코인 상자</t>
+  </si>
+  <si>
+    <t>무료 경험치 복구 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>고급 매터리얼 확정 상자</t>
   </si>
   <si>
     <t>영웅을 위한 장비 제작 지원 미션 이벤트</t>
@@ -434,9 +844,6 @@
     <t>서번트 획득 25회</t>
   </si>
   <si>
-    <t xml:space="preserve">모든 미션 완료 </t>
-  </si>
-  <si>
     <t>버터클과 함께하는 미션 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -444,9 +851,6 @@
     <t>3,030,303 골드 소모</t>
   </si>
   <si>
-    <t>변신의 돌 30회 소모</t>
-  </si>
-  <si>
     <t xml:space="preserve">상급 변신 뽑기권[이벤트] </t>
   </si>
   <si>
@@ -460,9 +864,6 @@
   </si>
   <si>
     <t>서번트 합성 20회 시도</t>
-  </si>
-  <si>
-    <t>일일 미션 30회 수행</t>
   </si>
   <si>
     <t>길드 코인 상자</t>
@@ -481,9 +882,6 @@
     <t>특별한 이벤트 제작 코인[이벤트] 1개</t>
   </si>
   <si>
-    <t>계정당 10회</t>
-  </si>
-  <si>
     <t>영웅 장비 제작 비급서 조각 상자[이벤트] 1개</t>
   </si>
   <si>
@@ -494,202 +892,17 @@
   </si>
   <si>
     <t>제한없음</t>
-  </si>
-  <si>
-    <t>일루미나의 성지 탐험 출석체크 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매터리얼 상자[일반~고급]</t>
-  </si>
-  <si>
-    <t>봉인된 영혼석[희귀]</t>
-  </si>
-  <si>
-    <t>무기 강화 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>방어구 강화 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>장신구 강화 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>행운의 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>클래스 전용 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>변신 강화 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>장인의 희귀 제작 비급서 조각</t>
-  </si>
-  <si>
-    <t>축복받은 장비 각인석</t>
-  </si>
-  <si>
-    <t>버터클과 함께하는 출석체크 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별한 비약 상자</t>
-  </si>
-  <si>
-    <t>모험가를 위한 특선 요리</t>
-  </si>
-  <si>
-    <t>전투 지원 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>로얄 코인 상자</t>
-  </si>
-  <si>
-    <t>명예 코인 상자</t>
-  </si>
-  <si>
-    <t>시간의 모래 주머니</t>
-  </si>
-  <si>
-    <t>무료 경험치 복구 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>고급 매터리얼 확정 상자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">통합 길드전 오픈 기념 미션 이벤트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2:重燃戰火 300일 기념 미션 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 장비나 강화 30회 시도</t>
-  </si>
-  <si>
-    <t>변신 합성 10회</t>
-  </si>
-  <si>
-    <t>체력 회복 포션 5,000회 사용</t>
-  </si>
-  <si>
-    <t>서번트 합성 10회</t>
-  </si>
-  <si>
-    <t>아이템 분해 30회</t>
-  </si>
-  <si>
-    <t>마물 23,521마리 처치</t>
-  </si>
-  <si>
-    <t>서번트의 돌 30회 소모</t>
-  </si>
-  <si>
-    <t>변신 획득 30회</t>
-  </si>
-  <si>
-    <t>서번트 획득 30회</t>
-  </si>
-  <si>
-    <t>일일 미션 30회 완료</t>
-  </si>
-  <si>
-    <t>일반 매터리얼 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>매터리얼 상자[일반~고급][이벤트]</t>
-  </si>
-  <si>
-    <t>상급 행운의 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>상급 변신 강화 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>상급 클래스 전용 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>상급 매터리얼 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>고급 매터리얼 확정 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>상급 변신 뽑기권</t>
-  </si>
-  <si>
-    <t>상급 서번트 뽑기권</t>
-  </si>
-  <si>
-    <t>고급 희귀 서번트 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>고급~희귀 변신 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>고급 서번트 확정 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>고급 변신 확정 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>상급 변신 뽑기권[11회]</t>
-  </si>
-  <si>
-    <t>통합 길드전 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀속된 태초의 흔적 상자</t>
-  </si>
-  <si>
-    <t>상급 서번트 뽑기권[11회]</t>
-  </si>
-  <si>
-    <t>서번트 포인트 충전석[고급]</t>
-  </si>
-  <si>
-    <t>변신 포인트 충전석[고급]</t>
-  </si>
-  <si>
-    <t>시간의 모래 주머니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사의 증표 120개</t>
-  </si>
-  <si>
-    <t>투사의 증표 30개</t>
-  </si>
-  <si>
-    <t>투사의 증표 5개</t>
-  </si>
-  <si>
-    <t>투사의 증표 1개</t>
-  </si>
-  <si>
-    <t>계정 당 1회</t>
-  </si>
-  <si>
-    <t>계정 당 2회</t>
-  </si>
-  <si>
-    <t>계정 당 5회</t>
-  </si>
-  <si>
-    <t>계정 당 30회</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,7 +1167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,29 +1258,17 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1353,12 +1554,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1660,13 +1857,13 @@
   <dimension ref="G1:Y46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="S20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="U50" sqref="A50:U51"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="7" width="9" style="8"/>
     <col min="8" max="8" width="11.125" style="8" customWidth="1"/>
@@ -1686,7 +1883,7 @@
     <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="7:25" ht="16.5">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1934,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="7:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:25" ht="16.5" customHeight="1">
       <c r="H2" s="5">
         <v>150</v>
       </c>
@@ -1777,7 +1974,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:25" ht="16.5">
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1803,7 +2000,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="7:25" ht="16.5">
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1829,7 +2026,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:25" ht="16.5">
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1855,7 +2052,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:25" ht="16.5">
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1881,7 +2078,7 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:25" ht="16.5">
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1907,7 +2104,7 @@
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:25" ht="16.5">
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1933,7 +2130,7 @@
       <c r="X8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="7:25" ht="16.5">
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1959,7 +2156,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="7:25" ht="16.5">
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1985,7 +2182,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="7:25" ht="16.5">
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2011,7 +2208,7 @@
       <c r="X11"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="7:25" ht="16.5">
       <c r="H12" s="7">
         <v>370</v>
       </c>
@@ -2053,7 +2250,7 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:25" ht="16.5">
       <c r="H13" s="7"/>
       <c r="I13" s="5"/>
       <c r="J13" s="7"/>
@@ -2081,7 +2278,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="7:25" ht="16.5">
       <c r="H14" s="7"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
@@ -2109,7 +2306,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:25" ht="16.5">
       <c r="H15" s="7"/>
       <c r="I15" s="5"/>
       <c r="J15" s="7"/>
@@ -2137,7 +2334,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="7:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:25" ht="16.5">
       <c r="H16" s="7"/>
       <c r="I16" s="5"/>
       <c r="J16" s="7"/>
@@ -2165,7 +2362,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:25" ht="16.5">
       <c r="H17" s="7"/>
       <c r="I17" s="5"/>
       <c r="J17" s="7"/>
@@ -2193,7 +2390,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:25" ht="16.5">
       <c r="H18" s="7"/>
       <c r="I18" s="5"/>
       <c r="J18" s="7"/>
@@ -2221,7 +2418,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H19" s="17">
         <v>371</v>
       </c>
@@ -2263,7 +2460,7 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
     </row>
-    <row r="20" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
       <c r="J20" s="17"/>
@@ -2291,7 +2488,7 @@
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
     </row>
-    <row r="21" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -2319,7 +2516,7 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
     </row>
-    <row r="22" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -2347,7 +2544,7 @@
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
     </row>
-    <row r="23" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -2375,7 +2572,7 @@
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
     </row>
-    <row r="24" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -2403,7 +2600,7 @@
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
     </row>
-    <row r="25" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -2431,7 +2628,7 @@
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
     </row>
-    <row r="26" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:25" ht="16.5">
       <c r="H26" s="7">
         <v>30012</v>
       </c>
@@ -2469,7 +2666,7 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H27" s="17">
         <v>20008</v>
       </c>
@@ -2509,7 +2706,7 @@
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
     </row>
-    <row r="28" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
       <c r="J28" s="22"/>
@@ -2537,7 +2734,7 @@
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
     </row>
-    <row r="29" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
@@ -2565,7 +2762,7 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="21"/>
     </row>
-    <row r="30" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
@@ -2593,7 +2790,7 @@
       <c r="X30" s="21"/>
       <c r="Y30" s="21"/>
     </row>
-    <row r="31" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -2621,7 +2818,7 @@
       <c r="X31" s="21"/>
       <c r="Y31" s="21"/>
     </row>
-    <row r="32" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
@@ -2649,7 +2846,7 @@
       <c r="X32" s="21"/>
       <c r="Y32" s="21"/>
     </row>
-    <row r="33" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="22"/>
@@ -2677,7 +2874,7 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="21"/>
     </row>
-    <row r="34" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="22"/>
@@ -2705,7 +2902,7 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="21"/>
     </row>
-    <row r="35" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:25" ht="16.5">
       <c r="H35" s="7">
         <v>1104</v>
       </c>
@@ -2743,7 +2940,7 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:25" ht="16.5">
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="11"/>
@@ -2767,7 +2964,7 @@
       <c r="X36"/>
       <c r="Y36"/>
     </row>
-    <row r="37" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:25" ht="16.5">
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="11"/>
@@ -2791,7 +2988,7 @@
       <c r="X37"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:25" ht="16.5">
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="11"/>
@@ -2815,7 +3012,7 @@
       <c r="X38"/>
       <c r="Y38"/>
     </row>
-    <row r="39" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:25" ht="16.5">
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="11"/>
@@ -2839,7 +3036,7 @@
       <c r="X39"/>
       <c r="Y39"/>
     </row>
-    <row r="40" spans="8:25" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:25" ht="16.5">
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="11"/>
@@ -2863,7 +3060,7 @@
       <c r="X40"/>
       <c r="Y40"/>
     </row>
-    <row r="41" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H41" s="17">
         <v>1105</v>
       </c>
@@ -2901,7 +3098,7 @@
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
     </row>
-    <row r="42" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="22"/>
@@ -2925,7 +3122,7 @@
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
     </row>
-    <row r="43" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="22"/>
@@ -2949,7 +3146,7 @@
       <c r="X43" s="21"/>
       <c r="Y43" s="21"/>
     </row>
-    <row r="44" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="22"/>
@@ -2973,7 +3170,7 @@
       <c r="X44" s="21"/>
       <c r="Y44" s="21"/>
     </row>
-    <row r="45" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
@@ -2997,7 +3194,7 @@
       <c r="X45" s="21"/>
       <c r="Y45" s="21"/>
     </row>
-    <row r="46" spans="8:25" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:25" s="16" customFormat="1" ht="16.5">
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -3031,17 +3228,1794 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE16723-2B1C-4B26-A9AF-081275E5AC4F}">
+  <dimension ref="A1:U62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="32.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" customHeight="1">
+      <c r="B2" s="5">
+        <v>200017</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45090</v>
+      </c>
+      <c r="H2" s="9">
+        <v>45104</v>
+      </c>
+      <c r="I2" s="33">
+        <v>210000152</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="6">
+        <v>10</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="33">
+        <v>210000153</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="33">
+        <v>210000154</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="33">
+        <v>210000155</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="33">
+        <v>210000156</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="33">
+        <v>210000157</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="5">
+        <v>4</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="33">
+        <v>210000158</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="5">
+        <v>10</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="33">
+        <v>210000159</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="5">
+        <v>3</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="33">
+        <v>210000160</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="5">
+        <v>4</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="33">
+        <v>210000161</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" s="16" customFormat="1">
+      <c r="B12" s="17">
+        <v>200018</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="19">
+        <v>45104</v>
+      </c>
+      <c r="H12" s="20">
+        <v>45125</v>
+      </c>
+      <c r="I12" s="17">
+        <v>210000162</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="17">
+        <v>10</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" s="16" customFormat="1">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="17">
+        <v>210000163</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="17">
+        <v>10</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+    </row>
+    <row r="14" spans="1:21" s="16" customFormat="1">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="17">
+        <v>210000164</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="17">
+        <v>5</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+    </row>
+    <row r="15" spans="1:21" s="16" customFormat="1">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="17">
+        <v>210000165</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="17">
+        <v>5</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+    </row>
+    <row r="16" spans="1:21" s="16" customFormat="1">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="17">
+        <v>210000166</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="17">
+        <v>5</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+    </row>
+    <row r="17" spans="2:21" s="16" customFormat="1">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="17">
+        <v>210000167</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="17">
+        <v>5</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+    </row>
+    <row r="18" spans="2:21" s="16" customFormat="1">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="17">
+        <v>210000168</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="17">
+        <v>5</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+    </row>
+    <row r="19" spans="2:21" s="16" customFormat="1">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="17">
+        <v>210000169</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="17">
+        <v>3</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+    </row>
+    <row r="20" spans="2:21" s="16" customFormat="1">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="17">
+        <v>210000170</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="17">
+        <v>3</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+    </row>
+    <row r="21" spans="2:21" s="16" customFormat="1">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="17">
+        <v>210000171</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="17">
+        <v>3</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+    </row>
+    <row r="22" spans="2:21" s="16" customFormat="1">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="17">
+        <v>210000172</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="17">
+        <v>5</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+    </row>
+    <row r="23" spans="2:21" s="16" customFormat="1">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="17">
+        <v>210000173</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" s="17">
+        <v>5</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+    </row>
+    <row r="24" spans="2:21" s="16" customFormat="1">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="17">
+        <v>210000174</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="17">
+        <v>5</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+    </row>
+    <row r="25" spans="2:21" s="16" customFormat="1">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="17">
+        <v>210000175</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="17">
+        <v>5</v>
+      </c>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+    </row>
+    <row r="26" spans="2:21" s="16" customFormat="1">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="17">
+        <v>210000176</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M26" s="17">
+        <v>5</v>
+      </c>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="7">
+        <v>202019</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="9">
+        <v>45090</v>
+      </c>
+      <c r="H27" s="9">
+        <v>45104</v>
+      </c>
+      <c r="I27" s="33">
+        <v>212000127</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="7">
+        <v>62</v>
+      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="7"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="33">
+        <v>212000128</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="7">
+        <v>62</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="7"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="33">
+        <v>212000129</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="7">
+        <v>62</v>
+      </c>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="7"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="33">
+        <v>212000130</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" s="7">
+        <v>62</v>
+      </c>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="33">
+        <v>212000131</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M31" s="7">
+        <v>62</v>
+      </c>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="33">
+        <v>212000132</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32" s="7">
+        <v>62</v>
+      </c>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="33">
+        <v>212000133</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" s="7">
+        <v>62</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="2:21" s="16" customFormat="1">
+      <c r="B34" s="17">
+        <v>202020</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="19">
+        <v>45104</v>
+      </c>
+      <c r="H34" s="20">
+        <v>45118</v>
+      </c>
+      <c r="I34" s="33">
+        <v>212000134</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34" s="17">
+        <v>1</v>
+      </c>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+    </row>
+    <row r="35" spans="2:21" s="16" customFormat="1">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="33">
+        <v>212000135</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="M35" s="17">
+        <v>3</v>
+      </c>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+    </row>
+    <row r="36" spans="2:21" s="16" customFormat="1">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="33">
+        <v>212000136</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M36" s="17">
+        <v>3</v>
+      </c>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+    </row>
+    <row r="37" spans="2:21" s="16" customFormat="1">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="33">
+        <v>212000137</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M37" s="17">
+        <v>3</v>
+      </c>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+    </row>
+    <row r="38" spans="2:21" s="16" customFormat="1">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="33">
+        <v>212000138</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" s="17">
+        <v>3</v>
+      </c>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+    </row>
+    <row r="39" spans="2:21" s="16" customFormat="1">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="33">
+        <v>212000139</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="17">
+        <v>2</v>
+      </c>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+    </row>
+    <row r="40" spans="2:21" s="16" customFormat="1">
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="33">
+        <v>212000140</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M40" s="17">
+        <v>1</v>
+      </c>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="7">
+        <v>201006</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="10">
+        <v>45090</v>
+      </c>
+      <c r="H41" s="10">
+        <v>73050</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="8"/>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="12"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="12"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="12"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="12"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="2:21" s="16" customFormat="1">
+      <c r="B46" s="17">
+        <v>330018</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="20">
+        <v>45090</v>
+      </c>
+      <c r="H46" s="20">
+        <v>73050</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M46" s="17">
+        <v>4</v>
+      </c>
+      <c r="N46" s="25"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+    </row>
+    <row r="47" spans="2:21" s="16" customFormat="1">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M47" s="17">
+        <v>4</v>
+      </c>
+      <c r="N47" s="25"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+    </row>
+    <row r="48" spans="2:21" s="16" customFormat="1">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M48" s="17">
+        <v>4</v>
+      </c>
+      <c r="N48" s="25"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+    </row>
+    <row r="49" spans="2:21" s="16" customFormat="1">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M49" s="17">
+        <v>100</v>
+      </c>
+      <c r="N49" s="25"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="7">
+        <v>330019</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="10">
+        <v>45090</v>
+      </c>
+      <c r="H50" s="10">
+        <v>73050</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M50" s="7">
+        <v>4</v>
+      </c>
+      <c r="N50" s="12"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M51" s="7">
+        <v>4</v>
+      </c>
+      <c r="N51" s="12"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="8"/>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M52" s="7">
+        <v>4</v>
+      </c>
+      <c r="N52" s="12"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="8"/>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M53" s="7">
+        <v>100</v>
+      </c>
+      <c r="N53" s="12"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="8"/>
+    </row>
+    <row r="54" spans="2:21" s="16" customFormat="1">
+      <c r="B54" s="17">
+        <v>230006</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="20">
+        <v>45027</v>
+      </c>
+      <c r="H54" s="20">
+        <v>45041</v>
+      </c>
+      <c r="I54" s="20"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M54" s="17"/>
+      <c r="N54" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="O54" s="17">
+        <v>620000</v>
+      </c>
+      <c r="P54" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+    </row>
+    <row r="55" spans="2:21" s="16" customFormat="1">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M55" s="17"/>
+      <c r="N55" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O55" s="17">
+        <v>620000</v>
+      </c>
+      <c r="P55" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+    </row>
+    <row r="56" spans="2:21" s="16" customFormat="1">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M56" s="17"/>
+      <c r="N56" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="O56" s="17">
+        <v>620000</v>
+      </c>
+      <c r="P56" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+    </row>
+    <row r="57" spans="2:21" s="16" customFormat="1">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M57" s="17"/>
+      <c r="N57" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="O57" s="17">
+        <v>60000</v>
+      </c>
+      <c r="P57" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+    </row>
+    <row r="58" spans="2:21" s="16" customFormat="1">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M58" s="17"/>
+      <c r="N58" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="O58" s="17">
+        <v>60000</v>
+      </c>
+      <c r="P58" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+    </row>
+    <row r="59" spans="2:21" s="16" customFormat="1">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M59" s="17"/>
+      <c r="N59" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="O59" s="17">
+        <v>60000</v>
+      </c>
+      <c r="P59" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+    </row>
+    <row r="60" spans="2:21" s="16" customFormat="1">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M60" s="17"/>
+      <c r="N60" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="O60" s="17">
+        <v>60000</v>
+      </c>
+      <c r="P60" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+    </row>
+    <row r="61" spans="2:21" s="16" customFormat="1">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M61" s="17"/>
+      <c r="N61" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O61" s="17">
+        <v>30000</v>
+      </c>
+      <c r="P61" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+    </row>
+    <row r="62" spans="2:21" s="16" customFormat="1">
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M62" s="17"/>
+      <c r="N62" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="O62" s="17">
+        <v>30000</v>
+      </c>
+      <c r="P62" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D543B-B92D-41B7-A8E2-CE0700229979}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -3061,7 +5035,7 @@
     <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3108,7 +5082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1">
       <c r="B2" s="5">
         <v>200015</v>
       </c>
@@ -3116,7 +5090,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -3131,11 +5105,11 @@
         <v>45076</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="L2" s="6">
         <v>1</v>
@@ -3144,7 +5118,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3153,11 +5127,11 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="5" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L3" s="5">
         <v>10</v>
@@ -3166,7 +5140,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3175,11 +5149,11 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="5" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="L4" s="5">
         <v>1</v>
@@ -3188,7 +5162,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3197,11 +5171,11 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="5" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="L5" s="5">
         <v>1</v>
@@ -3210,7 +5184,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3219,11 +5193,11 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="5" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="L6" s="5">
         <v>10</v>
@@ -3232,7 +5206,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3241,11 +5215,11 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="5" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="L7" s="5">
         <v>10</v>
@@ -3254,7 +5228,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3263,11 +5237,11 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="5" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -3276,7 +5250,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3285,11 +5259,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="5" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="L9" s="5">
         <v>2</v>
@@ -3298,7 +5272,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3307,11 +5281,11 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="5" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -3320,7 +5294,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3329,11 +5303,11 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="5" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7">
         <v>2</v>
@@ -3342,7 +5316,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="16" customFormat="1">
       <c r="B12" s="17">
         <v>200016</v>
       </c>
@@ -3350,7 +5324,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -3365,11 +5339,11 @@
         <v>45076</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="L12" s="17">
         <v>3</v>
@@ -3382,7 +5356,7 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
     </row>
-    <row r="13" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="16" customFormat="1">
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
@@ -3391,11 +5365,11 @@
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
       <c r="I13" s="17" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="L13" s="17">
         <v>3</v>
@@ -3408,7 +5382,7 @@
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
     </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="16" customFormat="1">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
@@ -3417,11 +5391,11 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
       <c r="I14" s="17" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="L14" s="17">
         <v>9</v>
@@ -3434,7 +5408,7 @@
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
     </row>
-    <row r="15" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="16" customFormat="1">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17"/>
@@ -3443,11 +5417,11 @@
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="17" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="L15" s="17">
         <v>9</v>
@@ -3460,7 +5434,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
     </row>
-    <row r="16" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="16" customFormat="1">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="17"/>
@@ -3469,11 +5443,11 @@
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
       <c r="I16" s="17" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="L16" s="17">
         <v>9</v>
@@ -3486,7 +5460,7 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
     </row>
-    <row r="17" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" s="16" customFormat="1">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -3495,11 +5469,11 @@
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="I17" s="17" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
@@ -3512,7 +5486,7 @@
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
     </row>
-    <row r="18" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" s="16" customFormat="1">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -3521,11 +5495,11 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
       <c r="I18" s="17" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -3538,7 +5512,7 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
     </row>
-    <row r="19" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" s="16" customFormat="1">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -3547,11 +5521,11 @@
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
       <c r="I19" s="17" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="L19" s="17">
         <v>3</v>
@@ -3564,7 +5538,7 @@
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
     </row>
-    <row r="20" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" s="16" customFormat="1">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -3573,11 +5547,11 @@
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
       <c r="I20" s="17" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="L20" s="17">
         <v>3</v>
@@ -3590,7 +5564,7 @@
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" s="16" customFormat="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -3599,11 +5573,11 @@
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
       <c r="I21" s="17" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="L21" s="17">
         <v>1</v>
@@ -3616,7 +5590,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20">
       <c r="B22" s="7">
         <v>202017</v>
       </c>
@@ -3624,7 +5598,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -3639,11 +5613,11 @@
         <v>45076</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7">
         <v>12</v>
@@ -3652,7 +5626,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -3661,11 +5635,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7">
         <v>3</v>
@@ -3674,7 +5648,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -3683,11 +5657,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L24" s="7">
         <v>1</v>
@@ -3696,7 +5670,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -3705,11 +5679,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L25" s="7">
         <v>1</v>
@@ -3718,7 +5692,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -3727,11 +5701,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L26" s="7">
         <v>1</v>
@@ -3740,7 +5714,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -3749,11 +5723,11 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
       <c r="I27" s="7" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="L27" s="7">
         <v>3</v>
@@ -3762,7 +5736,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -3771,11 +5745,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7">
         <v>2</v>
@@ -3784,7 +5758,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" s="16" customFormat="1">
       <c r="B29" s="17">
         <v>202018</v>
       </c>
@@ -3792,7 +5766,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -3807,11 +5781,11 @@
         <v>45076</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="L29" s="17">
         <v>6</v>
@@ -3824,7 +5798,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" s="16" customFormat="1">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="17"/>
@@ -3833,11 +5807,11 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="L30" s="17">
         <v>6</v>
@@ -3850,7 +5824,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" s="16" customFormat="1">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3859,11 +5833,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="L31" s="17">
         <v>3</v>
@@ -3876,7 +5850,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" s="16" customFormat="1">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3885,11 +5859,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="L32" s="17">
         <v>3</v>
@@ -3902,7 +5876,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" s="16" customFormat="1">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3911,11 +5885,11 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="L33" s="17">
         <v>3</v>
@@ -3928,7 +5902,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" s="16" customFormat="1">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3937,11 +5911,11 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="L34" s="17">
         <v>3</v>
@@ -3954,7 +5928,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" s="16" customFormat="1">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3963,11 +5937,11 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="L35" s="17">
         <v>3</v>
@@ -3980,337 +5954,298 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31">
+    <row r="36" spans="2:20">
+      <c r="B36" s="7">
         <v>240004</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31" t="s">
+      <c r="D36" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="10">
         <v>45062</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="10">
         <v>45090</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="L36" s="31">
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" s="7">
         <v>1</v>
       </c>
-      <c r="M36" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="N36" s="31">
+      <c r="M36" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="N36" s="7">
         <v>0</v>
       </c>
-      <c r="O36" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-    </row>
-    <row r="37" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="L37" s="31">
+      <c r="O36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L37" s="7">
         <v>1</v>
       </c>
-      <c r="M37" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="N37" s="31">
+      <c r="M37" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="N37" s="7">
         <v>0</v>
       </c>
-      <c r="O37" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-    </row>
-    <row r="38" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="L38" s="31">
+      <c r="O37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L38" s="7">
         <v>1</v>
       </c>
-      <c r="M38" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="N38" s="31">
+      <c r="M38" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="N38" s="7">
         <v>0</v>
       </c>
-      <c r="O38" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-    </row>
-    <row r="39" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="L39" s="31">
+      <c r="O38" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="7">
         <v>5</v>
       </c>
-      <c r="M39" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="N39" s="31">
+      <c r="M39" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="N39" s="7">
         <v>0</v>
       </c>
-      <c r="O39" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-    </row>
-    <row r="40" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="L40" s="31">
+      <c r="O39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" s="7">
         <v>1</v>
       </c>
-      <c r="M40" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="N40" s="31">
+      <c r="M40" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="N40" s="7">
         <v>0</v>
       </c>
-      <c r="O40" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-    </row>
-    <row r="41" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="L41" s="31">
+      <c r="O40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L41" s="7">
         <v>1</v>
       </c>
-      <c r="M41" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="N41" s="31">
+      <c r="M41" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="N41" s="7">
         <v>0</v>
       </c>
-      <c r="O41" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-    </row>
-    <row r="42" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-    </row>
-    <row r="43" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-    </row>
-    <row r="44" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-    </row>
-    <row r="45" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-    </row>
-    <row r="46" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-    </row>
-    <row r="47" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-    </row>
-    <row r="48" spans="2:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
+      <c r="O41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:T48" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
@@ -4320,18 +6255,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80965D8C-95CD-4DB4-8273-D31B107E6B71}">
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -4351,7 +6286,7 @@
     <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4398,7 +6333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1">
       <c r="B2" s="5">
         <v>200013</v>
       </c>
@@ -4406,7 +6341,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -4423,7 +6358,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="L2" s="6">
         <v>2</v>
@@ -4432,7 +6367,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -4443,7 +6378,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="L3" s="5">
         <v>2</v>
@@ -4452,7 +6387,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -4463,7 +6398,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="L4" s="5">
         <v>5</v>
@@ -4472,7 +6407,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4483,7 +6418,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="L5" s="5">
         <v>10</v>
@@ -4492,7 +6427,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4503,7 +6438,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="L6" s="5">
         <v>5</v>
@@ -4512,7 +6447,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4523,7 +6458,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
@@ -4532,7 +6467,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -4543,7 +6478,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -4552,7 +6487,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4563,7 +6498,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="L9" s="5">
         <v>1</v>
@@ -4572,7 +6507,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4583,7 +6518,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -4592,7 +6527,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4603,7 +6538,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
@@ -4612,7 +6547,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="16" customFormat="1">
       <c r="B12" s="17">
         <v>200014</v>
       </c>
@@ -4620,7 +6555,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -4637,7 +6572,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="L12" s="17">
         <v>5</v>
@@ -4650,7 +6585,7 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
     </row>
-    <row r="13" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="16" customFormat="1">
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
@@ -4661,7 +6596,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="L13" s="17">
         <v>5</v>
@@ -4674,7 +6609,7 @@
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
     </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="16" customFormat="1">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
@@ -4685,7 +6620,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="L14" s="17">
         <v>10</v>
@@ -4698,7 +6633,7 @@
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
     </row>
-    <row r="15" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="16" customFormat="1">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17"/>
@@ -4709,7 +6644,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="L15" s="17">
         <v>5</v>
@@ -4722,7 +6657,7 @@
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
     </row>
-    <row r="16" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="16" customFormat="1">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="17"/>
@@ -4733,7 +6668,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="L16" s="17">
         <v>1</v>
@@ -4746,7 +6681,7 @@
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
     </row>
-    <row r="17" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" s="16" customFormat="1">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -4757,7 +6692,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
@@ -4770,7 +6705,7 @@
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
     </row>
-    <row r="18" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" s="16" customFormat="1">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -4781,7 +6716,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -4794,7 +6729,7 @@
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
     </row>
-    <row r="19" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" s="16" customFormat="1">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -4805,7 +6740,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="L19" s="17">
         <v>2</v>
@@ -4818,7 +6753,7 @@
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
     </row>
-    <row r="20" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" s="16" customFormat="1">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -4829,7 +6764,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="L20" s="17">
         <v>2</v>
@@ -4842,7 +6777,7 @@
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
     </row>
-    <row r="21" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" s="16" customFormat="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -4853,7 +6788,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="L21" s="17">
         <v>3</v>
@@ -4866,7 +6801,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20">
       <c r="B22" s="7">
         <v>202015</v>
       </c>
@@ -4874,7 +6809,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -4889,11 +6824,11 @@
         <v>45041</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7">
         <v>5</v>
@@ -4902,7 +6837,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -4911,11 +6846,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="L23" s="7">
         <v>5</v>
@@ -4924,7 +6859,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -4937,7 +6872,7 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="L24" s="7">
         <v>5</v>
@@ -4946,7 +6881,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -4955,11 +6890,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>120</v>
+        <v>252</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7">
         <v>5</v>
@@ -4968,7 +6903,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -4977,11 +6912,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7">
         <v>5</v>
@@ -4990,7 +6925,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -5003,7 +6938,7 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="L27" s="7">
         <v>5</v>
@@ -5012,7 +6947,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -5021,11 +6956,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="L28" s="7">
         <v>10</v>
@@ -5034,7 +6969,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" s="16" customFormat="1">
       <c r="B29" s="17">
         <v>202016</v>
       </c>
@@ -5042,7 +6977,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -5057,11 +6992,11 @@
         <v>45055</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="L29" s="17">
         <v>5</v>
@@ -5074,7 +7009,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
     </row>
-    <row r="30" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" s="16" customFormat="1">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="17"/>
@@ -5083,11 +7018,11 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="L30" s="17">
         <v>1</v>
@@ -5100,7 +7035,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
     </row>
-    <row r="31" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" s="16" customFormat="1">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -5109,11 +7044,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="L31" s="17">
         <v>1</v>
@@ -5126,7 +7061,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
     </row>
-    <row r="32" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" s="16" customFormat="1">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -5135,11 +7070,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="L32" s="17">
         <v>2</v>
@@ -5152,7 +7087,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
     </row>
-    <row r="33" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:20" s="16" customFormat="1">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -5161,11 +7096,11 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="L33" s="17">
         <v>2</v>
@@ -5178,7 +7113,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
     </row>
-    <row r="34" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" s="16" customFormat="1">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -5187,11 +7122,11 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="L34" s="17">
         <v>10</v>
@@ -5204,7 +7139,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
     </row>
-    <row r="35" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:20" s="16" customFormat="1">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -5213,11 +7148,11 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="L35" s="17">
         <v>1</v>
@@ -5230,7 +7165,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" spans="2:20" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:20" s="16" customFormat="1" ht="40.5">
       <c r="B36" s="17">
         <v>999999</v>
       </c>
@@ -5238,7 +7173,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
@@ -5253,24 +7188,24 @@
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17" t="s">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="23" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="N36" s="17">
         <v>600000</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
     </row>
-    <row r="37" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:20" s="16" customFormat="1">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="22"/>
@@ -5281,24 +7216,24 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="23" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="N37" s="17">
         <v>450000</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
     </row>
-    <row r="38" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:20" s="16" customFormat="1">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -5309,17 +7244,17 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="24" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="N38" s="17">
         <v>20000</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
@@ -5334,21 +7269,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72B1469-5996-48F8-85D3-D2462F8567E4}">
-  <sheetPr>
-    <tabColor rgb="FF0D0D0D"/>
-  </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
@@ -5358,17 +7290,18 @@
     <col min="6" max="6" width="20.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.75" style="8" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="8"/>
+    <col min="9" max="9" width="12.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="32.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5394,28 +7327,31 @@
         <v>7</v>
       </c>
       <c r="I1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="B2" s="5">
         <v>200013</v>
       </c>
@@ -5423,7 +7359,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -5437,19 +7373,20 @@
       <c r="H2" s="9">
         <v>45041</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="6">
         <v>2</v>
       </c>
-      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5457,19 +7394,20 @@
       <c r="F3" s="5"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" s="5">
         <v>2</v>
       </c>
-      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5477,19 +7415,20 @@
       <c r="F4" s="5"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="5">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" s="5">
         <v>5</v>
       </c>
-      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5497,19 +7436,20 @@
       <c r="F5" s="5"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="5">
         <v>10</v>
       </c>
-      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5517,19 +7457,20 @@
       <c r="F6" s="5"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="5"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M6" s="5">
         <v>5</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5537,19 +7478,20 @@
       <c r="F7" s="5"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" s="5">
         <v>1</v>
       </c>
-      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5557,19 +7499,20 @@
       <c r="F8" s="5"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5577,19 +7520,20 @@
       <c r="F9" s="5"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="M9" s="5">
         <v>1</v>
       </c>
-      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5597,19 +7541,20 @@
       <c r="F10" s="5"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10" s="5">
         <v>3</v>
       </c>
-      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -5619,17 +7564,18 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M11" s="7">
         <v>1</v>
       </c>
-      <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" s="16" customFormat="1">
       <c r="B12" s="17">
         <v>200014</v>
       </c>
@@ -5637,7 +7583,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -5651,23 +7597,24 @@
       <c r="H12" s="20">
         <v>45055</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="17">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M12" s="17">
         <v>5</v>
       </c>
-      <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
-      <c r="Q12" s="21"/>
+      <c r="P12" s="17"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
-    </row>
-    <row r="13" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" s="16" customFormat="1">
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
@@ -5675,23 +7622,24 @@
       <c r="F13" s="17"/>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" s="17">
+      <c r="K13" s="17"/>
+      <c r="L13" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="M13" s="17">
         <v>5</v>
       </c>
-      <c r="M13" s="17"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
-      <c r="Q13" s="21"/>
+      <c r="P13" s="17"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
-    </row>
-    <row r="14" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U13" s="21"/>
+    </row>
+    <row r="14" spans="1:21" s="16" customFormat="1">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
@@ -5699,23 +7647,24 @@
       <c r="F14" s="17"/>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="M14" s="17">
         <v>10</v>
       </c>
-      <c r="M14" s="17"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
-      <c r="Q14" s="21"/>
+      <c r="P14" s="17"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
-    </row>
-    <row r="15" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U14" s="21"/>
+    </row>
+    <row r="15" spans="1:21" s="16" customFormat="1">
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17"/>
@@ -5723,23 +7672,24 @@
       <c r="F15" s="17"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" s="17">
+      <c r="K15" s="17"/>
+      <c r="L15" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="M15" s="17">
         <v>5</v>
       </c>
-      <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
-      <c r="Q15" s="21"/>
+      <c r="P15" s="17"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
-    </row>
-    <row r="16" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U15" s="21"/>
+    </row>
+    <row r="16" spans="1:21" s="16" customFormat="1">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="17"/>
@@ -5747,23 +7697,24 @@
       <c r="F16" s="17"/>
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" s="17">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" s="17">
         <v>1</v>
       </c>
-      <c r="M16" s="17"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
-      <c r="Q16" s="21"/>
+      <c r="P16" s="17"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
-    </row>
-    <row r="17" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U16" s="21"/>
+    </row>
+    <row r="17" spans="2:21" s="16" customFormat="1">
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -5771,23 +7722,24 @@
       <c r="F17" s="17"/>
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="L17" s="17">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" s="17">
         <v>1</v>
       </c>
-      <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
-      <c r="Q17" s="21"/>
+      <c r="P17" s="17"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U17" s="21"/>
+    </row>
+    <row r="18" spans="2:21" s="16" customFormat="1">
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -5795,23 +7747,24 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="17"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L18" s="17">
+      <c r="K18" s="17"/>
+      <c r="L18" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" s="17">
         <v>3</v>
       </c>
-      <c r="M18" s="17"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
-      <c r="Q18" s="21"/>
+      <c r="P18" s="17"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
-    </row>
-    <row r="19" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="21"/>
+    </row>
+    <row r="19" spans="2:21" s="16" customFormat="1">
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -5819,23 +7772,24 @@
       <c r="F19" s="17"/>
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="17"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="L19" s="17">
+      <c r="K19" s="17"/>
+      <c r="L19" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M19" s="17">
         <v>2</v>
       </c>
-      <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
-      <c r="Q19" s="21"/>
+      <c r="P19" s="17"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
-    </row>
-    <row r="20" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="21"/>
+    </row>
+    <row r="20" spans="2:21" s="16" customFormat="1">
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -5843,23 +7797,24 @@
       <c r="F20" s="17"/>
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="17"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="17">
+      <c r="K20" s="17"/>
+      <c r="L20" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" s="17">
         <v>2</v>
       </c>
-      <c r="M20" s="17"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
-      <c r="Q20" s="21"/>
+      <c r="P20" s="17"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
-    </row>
-    <row r="21" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="21"/>
+    </row>
+    <row r="21" spans="2:21" s="16" customFormat="1">
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -5867,23 +7822,24 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="17"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="L21" s="17">
+      <c r="K21" s="17"/>
+      <c r="L21" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="M21" s="17">
         <v>3</v>
       </c>
-      <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
-      <c r="Q21" s="21"/>
+      <c r="P21" s="17"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U21" s="21"/>
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="7">
         <v>202015</v>
       </c>
@@ -5891,7 +7847,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -5905,21 +7861,22 @@
       <c r="H22" s="9">
         <v>45041</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="7">
+      <c r="I22" s="9"/>
+      <c r="J22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M22" s="7">
         <v>5</v>
       </c>
-      <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="7"/>
@@ -5927,21 +7884,22 @@
       <c r="F23" s="7"/>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="7">
+      <c r="I23" s="10"/>
+      <c r="J23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M23" s="7">
         <v>5</v>
       </c>
-      <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="2:21">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
@@ -5949,21 +7907,22 @@
       <c r="F24" s="7"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="10"/>
+      <c r="J24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L24" s="7">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M24" s="7">
         <v>5</v>
       </c>
-      <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
@@ -5971,21 +7930,22 @@
       <c r="F25" s="7"/>
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="7">
+      <c r="I25" s="10"/>
+      <c r="J25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" s="7">
         <v>5</v>
       </c>
-      <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="2:21">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
@@ -5993,21 +7953,22 @@
       <c r="F26" s="7"/>
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L26" s="7">
+      <c r="I26" s="10"/>
+      <c r="J26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" s="7">
         <v>5</v>
       </c>
-      <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -6015,21 +7976,22 @@
       <c r="F27" s="7"/>
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="10"/>
+      <c r="J27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L27" s="7">
+      <c r="K27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" s="7">
         <v>5</v>
       </c>
-      <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -6037,21 +7999,22 @@
       <c r="F28" s="7"/>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="7">
+      <c r="I28" s="10"/>
+      <c r="J28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" s="7">
         <v>10</v>
       </c>
-      <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="2:21" s="16" customFormat="1">
       <c r="B29" s="17">
         <v>202016</v>
       </c>
@@ -6059,7 +8022,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -6073,25 +8036,26 @@
       <c r="H29" s="20">
         <v>45055</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="L29" s="17">
+      <c r="I29" s="20"/>
+      <c r="J29" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" s="17">
         <v>5</v>
       </c>
-      <c r="M29" s="17"/>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
-      <c r="Q29" s="21"/>
+      <c r="P29" s="17"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
-    </row>
-    <row r="30" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U29" s="21"/>
+    </row>
+    <row r="30" spans="2:21" s="16" customFormat="1">
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
       <c r="D30" s="17"/>
@@ -6099,25 +8063,26 @@
       <c r="F30" s="17"/>
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L30" s="17">
+      <c r="I30" s="20"/>
+      <c r="J30" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" s="17">
         <v>1</v>
       </c>
-      <c r="M30" s="17"/>
       <c r="N30" s="17"/>
       <c r="O30" s="17"/>
-      <c r="Q30" s="21"/>
+      <c r="P30" s="17"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
-    </row>
-    <row r="31" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="21"/>
+    </row>
+    <row r="31" spans="2:21" s="16" customFormat="1">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -6125,25 +8090,26 @@
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L31" s="17">
+      <c r="I31" s="17"/>
+      <c r="J31" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31" s="17">
         <v>1</v>
       </c>
-      <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="O31" s="17"/>
-      <c r="Q31" s="21"/>
+      <c r="P31" s="17"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
-    </row>
-    <row r="32" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U31" s="21"/>
+    </row>
+    <row r="32" spans="2:21" s="16" customFormat="1">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -6151,25 +8117,26 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
-      <c r="I32" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L32" s="17">
+      <c r="I32" s="17"/>
+      <c r="J32" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" s="17">
         <v>2</v>
       </c>
-      <c r="M32" s="17"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
-      <c r="Q32" s="21"/>
+      <c r="P32" s="17"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
-    </row>
-    <row r="33" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U32" s="21"/>
+    </row>
+    <row r="33" spans="2:21" s="16" customFormat="1">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -6177,25 +8144,26 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
-      <c r="I33" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L33" s="17">
+      <c r="I33" s="17"/>
+      <c r="J33" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" s="17">
         <v>2</v>
       </c>
-      <c r="M33" s="17"/>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
-      <c r="Q33" s="21"/>
+      <c r="P33" s="17"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
-    </row>
-    <row r="34" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U33" s="21"/>
+    </row>
+    <row r="34" spans="2:21" s="16" customFormat="1">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -6203,25 +8171,26 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="L34" s="17">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="M34" s="17">
         <v>10</v>
       </c>
-      <c r="M34" s="17"/>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
-      <c r="Q34" s="21"/>
+      <c r="P34" s="17"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
-    </row>
-    <row r="35" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U34" s="21"/>
+    </row>
+    <row r="35" spans="2:21" s="16" customFormat="1">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -6229,25 +8198,26 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="L35" s="17">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="M35" s="17">
         <v>1</v>
       </c>
-      <c r="M35" s="17"/>
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
-      <c r="Q35" s="21"/>
+      <c r="P35" s="17"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
-    </row>
-    <row r="36" spans="2:20" s="16" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="U35" s="21"/>
+    </row>
+    <row r="36" spans="2:21" s="16" customFormat="1" ht="40.5">
       <c r="B36" s="17">
         <v>999999</v>
       </c>
@@ -6255,7 +8225,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
@@ -6267,27 +8237,28 @@
       <c r="H36" s="20">
         <v>45041</v>
       </c>
-      <c r="I36" s="17"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="17"/>
-      <c r="K36" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N36" s="17">
+      <c r="K36" s="17"/>
+      <c r="L36" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="M36" s="17"/>
+      <c r="N36" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="O36" s="17">
         <v>600000</v>
       </c>
-      <c r="O36" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q36" s="21"/>
+      <c r="P36" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
-    </row>
-    <row r="37" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U36" s="21"/>
+    </row>
+    <row r="37" spans="2:21" s="16" customFormat="1">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="22"/>
@@ -6295,27 +8266,28 @@
       <c r="F37" s="17"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="17"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N37" s="17">
+      <c r="K37" s="17"/>
+      <c r="L37" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" s="17"/>
+      <c r="N37" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" s="17">
         <v>450000</v>
       </c>
-      <c r="O37" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q37" s="21"/>
+      <c r="P37" s="17" t="s">
+        <v>267</v>
+      </c>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
-    </row>
-    <row r="38" spans="2:20" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U37" s="21"/>
+    </row>
+    <row r="38" spans="2:21" s="16" customFormat="1">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -6323,28 +8295,28 @@
       <c r="F38" s="17"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="17"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="17"/>
-      <c r="K38" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="N38" s="17">
+      <c r="K38" s="17"/>
+      <c r="L38" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" s="17"/>
+      <c r="N38" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="O38" s="17">
         <v>20000</v>
       </c>
-      <c r="O38" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q38" s="21"/>
+      <c r="P38" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:T38" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
@@ -6584,28 +8556,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
-    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
 </file>
--- a/이벤트DATA_TW.xlsx
+++ b/이벤트DATA_TW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26623"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="672" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99A7CE36-13C8-4460-AD29-E675A6F1363A}"/>
+  <xr:revisionPtr revIDLastSave="687" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{981C0223-759F-4233-897E-F61C040B193F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="277">
   <si>
     <t>최종수정일</t>
   </si>
@@ -340,6 +340,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>비고(내부)</t>
+  </si>
+  <si>
     <t>단오절 기념 출석체크 이벤트</t>
   </si>
   <si>
@@ -370,19 +373,40 @@
     <t>요일 던전 리뉴얼 기념 출석체크 이벤트</t>
   </si>
   <si>
-    <t>전투의 마법 주문서</t>
-  </si>
-  <si>
-    <t>회복의 마법 주문서</t>
+    <t>230627 패치 적용</t>
+  </si>
+  <si>
+    <t>희귀 포인트 충전석 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>극복의 성배 전리품 상자</t>
   </si>
   <si>
     <t>시간의 모래 주머니</t>
   </si>
   <si>
-    <t>일반 서번트 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>일반 변신 뽑기권[이벤트]</t>
+    <t>영혼의 부적 전리품 상자</t>
+  </si>
+  <si>
+    <t>생명의 금관 전리품 상자</t>
+  </si>
+  <si>
+    <t>상급 전투 지원 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>숙련의 나팔 전리품 상자</t>
+  </si>
+  <si>
+    <t>파괴의 가면 전리품 상자</t>
+  </si>
+  <si>
+    <t>수호의 팔찌 전리품 상자</t>
+  </si>
+  <si>
+    <t>상급 매터리얼 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>희귀 변신 확정 뽑기권[이벤트]</t>
   </si>
   <si>
     <t>단오절 기념 미션 이벤트</t>
@@ -450,9 +474,6 @@
   </si>
   <si>
     <t>일일 미션 50회 완료</t>
-  </si>
-  <si>
-    <t>상급 매터리얼 상자[이벤트]</t>
   </si>
   <si>
     <t>각성한 영웅의 레벨 달성 이벤트</t>
@@ -902,7 +923,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,6 +991,15 @@
       <sz val="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1167,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1268,6 +1298,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3232,15 +3271,15 @@
   <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="10.25" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.75" style="8" bestFit="1" customWidth="1"/>
@@ -3256,6 +3295,7 @@
     <col min="14" max="14" width="35.375" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.75" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.75" style="8" customWidth="1"/>
+    <col min="17" max="17" width="29.375" style="8" customWidth="1"/>
     <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -3308,6 +3348,9 @@
       <c r="P1" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="Q1" s="15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1">
       <c r="B2" s="5">
@@ -3317,7 +3360,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -3337,7 +3380,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M2" s="6">
         <v>10</v>
@@ -3345,6 +3388,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:21">
       <c r="B3" s="5"/>
@@ -3360,7 +3404,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" s="5">
         <v>5</v>
@@ -3368,6 +3412,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:21">
       <c r="B4" s="5"/>
@@ -3383,7 +3428,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="5">
         <v>4</v>
@@ -3391,6 +3436,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:21">
       <c r="B5" s="5"/>
@@ -3406,7 +3452,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M5" s="5">
         <v>5</v>
@@ -3414,6 +3460,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:21">
       <c r="B6" s="5"/>
@@ -3429,7 +3476,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M6" s="5">
         <v>5</v>
@@ -3437,6 +3484,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:21">
       <c r="B7" s="5"/>
@@ -3452,7 +3500,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7" s="5">
         <v>4</v>
@@ -3460,6 +3508,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:21">
       <c r="B8" s="5"/>
@@ -3475,7 +3524,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" s="5">
         <v>10</v>
@@ -3483,6 +3532,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:21">
       <c r="B9" s="5"/>
@@ -3498,7 +3548,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" s="5">
         <v>3</v>
@@ -3506,6 +3556,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:21">
       <c r="B10" s="5"/>
@@ -3521,7 +3572,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M10" s="5">
         <v>4</v>
@@ -3529,6 +3580,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:21">
       <c r="B11" s="7"/>
@@ -3544,7 +3596,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3552,8 +3604,12 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:21" s="16" customFormat="1">
+      <c r="A12" s="35">
+        <v>45104</v>
+      </c>
       <c r="B12" s="17">
         <v>200018</v>
       </c>
@@ -3561,10 +3617,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>18</v>
@@ -3580,21 +3636,27 @@
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
-      <c r="L12" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" s="17">
-        <v>10</v>
+      <c r="L12" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="34">
+        <v>1</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
+      <c r="Q12" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
     </row>
     <row r="13" spans="1:21" s="16" customFormat="1">
+      <c r="A13" s="35">
+        <v>45104</v>
+      </c>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="17"/>
@@ -3607,21 +3669,27 @@
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" s="17">
-        <v>10</v>
+      <c r="L13" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="34">
+        <v>5</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
+      <c r="Q13" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
     </row>
     <row r="14" spans="1:21" s="16" customFormat="1">
+      <c r="A14" s="35">
+        <v>45104</v>
+      </c>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17"/>
@@ -3634,21 +3702,27 @@
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="M14" s="17">
-        <v>5</v>
+      <c r="L14" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="34">
+        <v>11</v>
       </c>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
+      <c r="Q14" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
     </row>
     <row r="15" spans="1:21" s="16" customFormat="1">
+      <c r="A15" s="35">
+        <v>45104</v>
+      </c>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17"/>
@@ -3661,21 +3735,27 @@
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
-      <c r="L15" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="17">
+      <c r="L15" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="34">
         <v>5</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
+      <c r="Q15" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
     </row>
     <row r="16" spans="1:21" s="16" customFormat="1">
+      <c r="A16" s="35">
+        <v>45104</v>
+      </c>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="17"/>
@@ -3688,21 +3768,27 @@
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="17">
-        <v>5</v>
+      <c r="L16" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="34">
+        <v>11</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
+      <c r="Q16" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
     </row>
-    <row r="17" spans="2:21" s="16" customFormat="1">
+    <row r="17" spans="1:21" s="16" customFormat="1">
+      <c r="A17" s="35">
+        <v>45104</v>
+      </c>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -3715,21 +3801,27 @@
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="17">
-        <v>5</v>
+      <c r="L17" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="34">
+        <v>11</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
+      <c r="Q17" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
     </row>
-    <row r="18" spans="2:21" s="16" customFormat="1">
+    <row r="18" spans="1:21" s="16" customFormat="1">
+      <c r="A18" s="35">
+        <v>45104</v>
+      </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -3742,21 +3834,27 @@
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="M18" s="17">
-        <v>5</v>
+      <c r="L18" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="34">
+        <v>10</v>
       </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
+      <c r="Q18" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
     </row>
-    <row r="19" spans="2:21" s="16" customFormat="1">
+    <row r="19" spans="1:21" s="16" customFormat="1">
+      <c r="A19" s="35">
+        <v>45104</v>
+      </c>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -3769,21 +3867,27 @@
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
-      <c r="L19" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="M19" s="17">
-        <v>3</v>
+      <c r="L19" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="34">
+        <v>1</v>
       </c>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
+      <c r="Q19" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
     </row>
-    <row r="20" spans="2:21" s="16" customFormat="1">
+    <row r="20" spans="1:21" s="16" customFormat="1">
+      <c r="A20" s="35">
+        <v>45104</v>
+      </c>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -3796,21 +3900,27 @@
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
-      <c r="L20" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="17">
-        <v>3</v>
+      <c r="L20" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="34">
+        <v>5</v>
       </c>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
+      <c r="Q20" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
     </row>
-    <row r="21" spans="2:21" s="16" customFormat="1">
+    <row r="21" spans="1:21" s="16" customFormat="1">
+      <c r="A21" s="35">
+        <v>45104</v>
+      </c>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -3823,21 +3933,27 @@
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="17">
-        <v>3</v>
+      <c r="L21" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="34">
+        <v>11</v>
       </c>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
+      <c r="Q21" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
     </row>
-    <row r="22" spans="2:21" s="16" customFormat="1">
+    <row r="22" spans="1:21" s="16" customFormat="1">
+      <c r="A22" s="35">
+        <v>45104</v>
+      </c>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
@@ -3850,21 +3966,27 @@
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="17">
-        <v>5</v>
+      <c r="L22" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="34">
+        <v>3</v>
       </c>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
+      <c r="Q22" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
     </row>
-    <row r="23" spans="2:21" s="16" customFormat="1">
+    <row r="23" spans="1:21" s="16" customFormat="1">
+      <c r="A23" s="35">
+        <v>45104</v>
+      </c>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -3877,21 +3999,27 @@
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
-      <c r="L23" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="17">
-        <v>5</v>
+      <c r="L23" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="34">
+        <v>11</v>
       </c>
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
+      <c r="Q23" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
     </row>
-    <row r="24" spans="2:21" s="16" customFormat="1">
+    <row r="24" spans="1:21" s="16" customFormat="1">
+      <c r="A24" s="35">
+        <v>45104</v>
+      </c>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
@@ -3904,21 +4032,27 @@
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" s="17">
-        <v>5</v>
+      <c r="L24" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="34">
+        <v>11</v>
       </c>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
+      <c r="Q24" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
     </row>
-    <row r="25" spans="2:21" s="16" customFormat="1">
+    <row r="25" spans="1:21" s="16" customFormat="1">
+      <c r="A25" s="35">
+        <v>45104</v>
+      </c>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
@@ -3931,21 +4065,27 @@
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="M25" s="17">
-        <v>5</v>
+      <c r="L25" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="M25" s="34">
+        <v>1</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
+      <c r="Q25" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
     </row>
-    <row r="26" spans="2:21" s="16" customFormat="1">
+    <row r="26" spans="1:21" s="16" customFormat="1">
+      <c r="A26" s="35">
+        <v>45104</v>
+      </c>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
       <c r="D26" s="17"/>
@@ -3958,21 +4098,24 @@
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="M26" s="17">
-        <v>5</v>
+      <c r="L26" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="34">
+        <v>4</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
+      <c r="Q26" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
     </row>
-    <row r="27" spans="2:21">
+    <row r="27" spans="1:21">
       <c r="B27" s="7">
         <v>202019</v>
       </c>
@@ -3980,7 +4123,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>31</v>
@@ -3998,11 +4141,11 @@
         <v>212000127</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M27" s="7">
         <v>62</v>
@@ -4010,8 +4153,9 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="2:21">
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
@@ -4023,11 +4167,11 @@
         <v>212000128</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -4035,8 +4179,9 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="2:21">
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
@@ -4048,11 +4193,11 @@
         <v>212000129</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M29" s="7">
         <v>62</v>
@@ -4060,8 +4205,9 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="2:21">
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
@@ -4073,11 +4219,11 @@
         <v>212000130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -4085,8 +4231,9 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="2:21">
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:21">
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -4098,11 +4245,11 @@
         <v>212000131</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M31" s="7">
         <v>62</v>
@@ -4110,8 +4257,9 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="2:21">
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
@@ -4123,11 +4271,11 @@
         <v>212000132</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>62</v>
@@ -4135,6 +4283,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="7"/>
@@ -4148,11 +4297,11 @@
         <v>212000133</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M33" s="7">
         <v>62</v>
@@ -4160,6 +4309,7 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="2:21" s="16" customFormat="1">
       <c r="B34" s="17">
@@ -4169,7 +4319,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>31</v>
@@ -4187,11 +4337,11 @@
         <v>212000134</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M34" s="17">
         <v>1</v>
@@ -4199,6 +4349,7 @@
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
@@ -4216,11 +4367,11 @@
         <v>212000135</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M35" s="17">
         <v>3</v>
@@ -4228,6 +4379,7 @@
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
@@ -4245,11 +4397,11 @@
         <v>212000136</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K36" s="17"/>
       <c r="L36" s="17" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M36" s="17">
         <v>3</v>
@@ -4257,6 +4409,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
@@ -4274,11 +4427,11 @@
         <v>212000137</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M37" s="17">
         <v>3</v>
@@ -4286,6 +4439,7 @@
       <c r="N37" s="17"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
@@ -4303,11 +4457,11 @@
         <v>212000138</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="K38" s="17"/>
       <c r="L38" s="17" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M38" s="17">
         <v>3</v>
@@ -4315,6 +4469,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
@@ -4332,11 +4487,11 @@
         <v>212000139</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="M39" s="17">
         <v>2</v>
@@ -4344,6 +4499,7 @@
       <c r="N39" s="17"/>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
@@ -4361,11 +4517,11 @@
         <v>212000140</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="M40" s="17">
         <v>1</v>
@@ -4373,6 +4529,7 @@
       <c r="N40" s="17"/>
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
@@ -4386,10 +4543,10 @@
         <v>29</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>18</v>
@@ -4402,11 +4559,11 @@
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -4414,7 +4571,7 @@
       <c r="N41" s="12"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
-      <c r="Q41" s="8"/>
+      <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="2:21">
       <c r="B42" s="7"/>
@@ -4426,11 +4583,11 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -4438,7 +4595,7 @@
       <c r="N42" s="12"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
-      <c r="Q42" s="8"/>
+      <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="2:21">
       <c r="B43" s="7"/>
@@ -4450,11 +4607,11 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -4462,7 +4619,7 @@
       <c r="N43" s="12"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
-      <c r="Q43" s="8"/>
+      <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="2:21">
       <c r="B44" s="7"/>
@@ -4474,11 +4631,11 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -4486,7 +4643,7 @@
       <c r="N44" s="12"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="8"/>
+      <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="2:21">
       <c r="B45" s="7"/>
@@ -4498,11 +4655,11 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -4510,7 +4667,7 @@
       <c r="N45" s="12"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
-      <c r="Q45" s="8"/>
+      <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="2:21" s="16" customFormat="1">
       <c r="B46" s="17">
@@ -4520,11 +4677,11 @@
         <v>74</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G46" s="20">
         <v>45090</v>
@@ -4544,6 +4701,7 @@
       <c r="N46" s="25"/>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
       <c r="T46" s="21"/>
@@ -4569,6 +4727,7 @@
       <c r="N47" s="25"/>
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
       <c r="T47" s="21"/>
@@ -4586,7 +4745,7 @@
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M48" s="17">
         <v>4</v>
@@ -4594,6 +4753,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
       <c r="T48" s="21"/>
@@ -4611,7 +4771,7 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M49" s="17">
         <v>100</v>
@@ -4619,6 +4779,7 @@
       <c r="N49" s="25"/>
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
       <c r="T49" s="21"/>
@@ -4629,14 +4790,14 @@
         <v>330019</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G50" s="10">
         <v>45090</v>
@@ -4648,7 +4809,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M50" s="7">
         <v>4</v>
@@ -4656,7 +4817,7 @@
       <c r="N50" s="12"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
-      <c r="Q50" s="8"/>
+      <c r="Q50" s="7"/>
     </row>
     <row r="51" spans="2:21">
       <c r="B51" s="7"/>
@@ -4670,7 +4831,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -4678,7 +4839,7 @@
       <c r="N51" s="12"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
-      <c r="Q51" s="8"/>
+      <c r="Q51" s="7"/>
     </row>
     <row r="52" spans="2:21">
       <c r="B52" s="7"/>
@@ -4700,7 +4861,7 @@
       <c r="N52" s="12"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
-      <c r="Q52" s="8"/>
+      <c r="Q52" s="7"/>
     </row>
     <row r="53" spans="2:21">
       <c r="B53" s="7"/>
@@ -4714,7 +4875,7 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M53" s="7">
         <v>100</v>
@@ -4722,7 +4883,7 @@
       <c r="N53" s="12"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
-      <c r="Q53" s="8"/>
+      <c r="Q53" s="7"/>
     </row>
     <row r="54" spans="2:21" s="16" customFormat="1">
       <c r="B54" s="17">
@@ -4732,7 +4893,7 @@
         <v>58</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17" t="s">
@@ -4748,16 +4909,19 @@
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="23" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O54" s="17">
         <v>620000</v>
       </c>
       <c r="P54" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q54" s="17" t="s">
         <v>31</v>
       </c>
       <c r="R54" s="21"/>
@@ -4777,17 +4941,20 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="23" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O55" s="17">
         <v>620000</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="Q55" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="R55" s="21"/>
       <c r="S55" s="21"/>
@@ -4806,17 +4973,20 @@
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="23" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="O56" s="17">
         <v>620000</v>
       </c>
       <c r="P56" s="17" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="Q56" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="R56" s="21"/>
       <c r="S56" s="21"/>
@@ -4835,17 +5005,20 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="23" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O57" s="17">
         <v>60000</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="Q57" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="R57" s="21"/>
       <c r="S57" s="21"/>
@@ -4864,17 +5037,20 @@
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="23" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O58" s="17">
         <v>60000</v>
       </c>
       <c r="P58" s="17" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="Q58" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
@@ -4893,17 +5069,20 @@
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="23" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O59" s="17">
         <v>60000</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="R59" s="21"/>
       <c r="S59" s="21"/>
@@ -4922,17 +5101,20 @@
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="23" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="O60" s="17">
         <v>60000</v>
       </c>
       <c r="P60" s="17" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="Q60" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="R60" s="21"/>
       <c r="S60" s="21"/>
@@ -4951,17 +5133,20 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="23" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="O61" s="17">
         <v>30000</v>
       </c>
       <c r="P61" s="17" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="Q61" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="R61" s="21"/>
       <c r="S61" s="21"/>
@@ -4980,17 +5165,20 @@
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="23" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="O62" s="17">
         <v>30000</v>
       </c>
       <c r="P62" s="17" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="Q62" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="R62" s="21"/>
       <c r="S62" s="21"/>
@@ -5090,7 +5278,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -5105,11 +5293,11 @@
         <v>45076</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L2" s="6">
         <v>1</v>
@@ -5127,11 +5315,11 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" s="5">
         <v>10</v>
@@ -5149,11 +5337,11 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L4" s="5">
         <v>1</v>
@@ -5171,11 +5359,11 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L5" s="5">
         <v>1</v>
@@ -5193,11 +5381,11 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L6" s="5">
         <v>10</v>
@@ -5215,11 +5403,11 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L7" s="5">
         <v>10</v>
@@ -5237,11 +5425,11 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -5259,11 +5447,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L9" s="5">
         <v>2</v>
@@ -5281,11 +5469,11 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -5303,11 +5491,11 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7">
         <v>2</v>
@@ -5324,7 +5512,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -5339,11 +5527,11 @@
         <v>45076</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L12" s="17">
         <v>3</v>
@@ -5365,11 +5553,11 @@
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
       <c r="I13" s="17" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L13" s="17">
         <v>3</v>
@@ -5391,11 +5579,11 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
       <c r="I14" s="17" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L14" s="17">
         <v>9</v>
@@ -5417,11 +5605,11 @@
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="17" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L15" s="17">
         <v>9</v>
@@ -5443,11 +5631,11 @@
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
       <c r="I16" s="17" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L16" s="17">
         <v>9</v>
@@ -5469,11 +5657,11 @@
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="I17" s="17" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
@@ -5495,11 +5683,11 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
       <c r="I18" s="17" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -5521,11 +5709,11 @@
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
       <c r="I19" s="17" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L19" s="17">
         <v>3</v>
@@ -5547,11 +5735,11 @@
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
       <c r="I20" s="17" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L20" s="17">
         <v>3</v>
@@ -5573,11 +5761,11 @@
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
       <c r="I21" s="17" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L21" s="17">
         <v>1</v>
@@ -5598,7 +5786,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -5613,11 +5801,11 @@
         <v>45076</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L22" s="7">
         <v>12</v>
@@ -5635,11 +5823,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L23" s="7">
         <v>3</v>
@@ -5657,11 +5845,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L24" s="7">
         <v>1</v>
@@ -5679,11 +5867,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L25" s="7">
         <v>1</v>
@@ -5701,11 +5889,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L26" s="7">
         <v>1</v>
@@ -5723,11 +5911,11 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
       <c r="I27" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="L27" s="7">
         <v>3</v>
@@ -5745,11 +5933,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L28" s="7">
         <v>2</v>
@@ -5766,7 +5954,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -5781,11 +5969,11 @@
         <v>45076</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L29" s="17">
         <v>6</v>
@@ -5807,11 +5995,11 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L30" s="17">
         <v>6</v>
@@ -5833,11 +6021,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L31" s="17">
         <v>3</v>
@@ -5859,11 +6047,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L32" s="17">
         <v>3</v>
@@ -5885,11 +6073,11 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L33" s="17">
         <v>3</v>
@@ -5911,11 +6099,11 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L34" s="17">
         <v>3</v>
@@ -5937,11 +6125,11 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L35" s="17">
         <v>3</v>
@@ -5962,7 +6150,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -5977,19 +6165,19 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L36" s="7">
         <v>1</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="N36" s="7">
         <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P36" s="8"/>
     </row>
@@ -6004,19 +6192,19 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L37" s="7">
         <v>1</v>
       </c>
       <c r="M37" s="31" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="N37" s="7">
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P37" s="8"/>
     </row>
@@ -6031,19 +6219,19 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L38" s="7">
         <v>1</v>
       </c>
       <c r="M38" s="31" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="N38" s="7">
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P38" s="8"/>
     </row>
@@ -6058,19 +6246,19 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L39" s="7">
         <v>5</v>
       </c>
       <c r="M39" s="31" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="N39" s="7">
         <v>0</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="P39" s="8"/>
     </row>
@@ -6085,19 +6273,19 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="L40" s="7">
         <v>1</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="N40" s="7">
         <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="P40" s="8"/>
     </row>
@@ -6112,19 +6300,19 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="L41" s="7">
         <v>1</v>
       </c>
       <c r="M41" s="31" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="N41" s="7">
         <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="P41" s="8"/>
     </row>
@@ -6341,7 +6529,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -6358,7 +6546,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L2" s="6">
         <v>2</v>
@@ -6378,7 +6566,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L3" s="5">
         <v>2</v>
@@ -6398,7 +6586,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L4" s="5">
         <v>5</v>
@@ -6418,7 +6606,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L5" s="5">
         <v>10</v>
@@ -6438,7 +6626,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L6" s="5">
         <v>5</v>
@@ -6458,7 +6646,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
@@ -6478,7 +6666,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -6498,7 +6686,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L9" s="5">
         <v>1</v>
@@ -6518,7 +6706,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -6538,7 +6726,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
@@ -6555,7 +6743,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -6572,7 +6760,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L12" s="17">
         <v>5</v>
@@ -6596,7 +6784,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L13" s="17">
         <v>5</v>
@@ -6620,7 +6808,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L14" s="17">
         <v>10</v>
@@ -6644,7 +6832,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="L15" s="17">
         <v>5</v>
@@ -6668,7 +6856,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L16" s="17">
         <v>1</v>
@@ -6692,7 +6880,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
@@ -6716,7 +6904,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -6740,7 +6928,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L19" s="17">
         <v>2</v>
@@ -6764,7 +6952,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L20" s="17">
         <v>2</v>
@@ -6788,7 +6976,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L21" s="17">
         <v>3</v>
@@ -6809,7 +6997,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -6824,11 +7012,11 @@
         <v>45041</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7">
         <v>5</v>
@@ -6846,11 +7034,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7">
         <v>5</v>
@@ -6872,7 +7060,7 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L24" s="7">
         <v>5</v>
@@ -6890,11 +7078,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L25" s="7">
         <v>5</v>
@@ -6912,11 +7100,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L26" s="7">
         <v>5</v>
@@ -6938,7 +7126,7 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L27" s="7">
         <v>5</v>
@@ -6956,11 +7144,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L28" s="7">
         <v>10</v>
@@ -6977,7 +7165,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -6992,11 +7180,11 @@
         <v>45055</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L29" s="17">
         <v>5</v>
@@ -7018,11 +7206,11 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L30" s="17">
         <v>1</v>
@@ -7044,11 +7232,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L31" s="17">
         <v>1</v>
@@ -7070,11 +7258,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L32" s="17">
         <v>2</v>
@@ -7096,11 +7284,11 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L33" s="17">
         <v>2</v>
@@ -7122,11 +7310,11 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L34" s="17">
         <v>10</v>
@@ -7148,11 +7336,11 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L35" s="17">
         <v>1</v>
@@ -7173,7 +7361,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
@@ -7188,17 +7376,17 @@
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="23" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="N36" s="17">
         <v>600000</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
@@ -7216,17 +7404,17 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="23" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="N37" s="17">
         <v>450000</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
@@ -7244,17 +7432,17 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="24" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="N38" s="17">
         <v>20000</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
@@ -7359,7 +7547,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -7377,7 +7565,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M2" s="6">
         <v>2</v>
@@ -7398,7 +7586,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M3" s="5">
         <v>2</v>
@@ -7419,7 +7607,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M4" s="5">
         <v>5</v>
@@ -7440,7 +7628,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M5" s="5">
         <v>10</v>
@@ -7461,7 +7649,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M6" s="5">
         <v>5</v>
@@ -7482,7 +7670,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M7" s="5">
         <v>1</v>
@@ -7503,7 +7691,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
@@ -7524,7 +7712,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M9" s="5">
         <v>1</v>
@@ -7545,7 +7733,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="M10" s="5">
         <v>3</v>
@@ -7566,7 +7754,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -7583,7 +7771,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -7601,7 +7789,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M12" s="17">
         <v>5</v>
@@ -7626,7 +7814,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M13" s="17">
         <v>5</v>
@@ -7651,7 +7839,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M14" s="17">
         <v>10</v>
@@ -7676,7 +7864,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M15" s="17">
         <v>5</v>
@@ -7701,7 +7889,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M16" s="17">
         <v>1</v>
@@ -7726,7 +7914,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M17" s="17">
         <v>1</v>
@@ -7751,7 +7939,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M18" s="17">
         <v>3</v>
@@ -7776,7 +7964,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M19" s="17">
         <v>2</v>
@@ -7801,7 +7989,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M20" s="17">
         <v>2</v>
@@ -7826,7 +8014,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M21" s="17">
         <v>3</v>
@@ -7847,7 +8035,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -7863,11 +8051,11 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -7886,11 +8074,11 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -7913,7 +8101,7 @@
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7932,11 +8120,11 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7955,11 +8143,11 @@
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7982,7 +8170,7 @@
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -8001,11 +8189,11 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -8022,7 +8210,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -8038,11 +8226,11 @@
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="17" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="17" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M29" s="17">
         <v>5</v>
@@ -8065,11 +8253,11 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="17" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="17" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M30" s="17">
         <v>1</v>
@@ -8092,11 +8280,11 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M31" s="17">
         <v>1</v>
@@ -8119,11 +8307,11 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="17" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M32" s="17">
         <v>2</v>
@@ -8146,11 +8334,11 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="17" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M33" s="17">
         <v>2</v>
@@ -8173,11 +8361,11 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M34" s="17">
         <v>10</v>
@@ -8200,11 +8388,11 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M35" s="17">
         <v>1</v>
@@ -8225,7 +8413,7 @@
         <v>58</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
@@ -8241,17 +8429,17 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M36" s="17"/>
       <c r="N36" s="23" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="O36" s="17">
         <v>600000</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
@@ -8270,17 +8458,17 @@
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M37" s="17"/>
       <c r="N37" s="23" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="O37" s="17">
         <v>450000</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
@@ -8299,17 +8487,17 @@
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M38" s="17"/>
       <c r="N38" s="24" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="O38" s="17">
         <v>20000</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
@@ -8324,6 +8512,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -8546,19 +8743,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20D6D224-8B4D-4E37-8696-12F3450EDE0B}"/>
 </file>
--- a/이벤트DATA_TW.xlsx
+++ b/이벤트DATA_TW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1135" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA143F77-CA9A-4D4D-982D-24C887A70027}"/>
+  <xr:revisionPtr revIDLastSave="1142" documentId="13_ncr:1_{0FD6ADB6-7B08-4CF7-B47D-28D24761C236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A343C1CD-7181-4056-816A-325B87DF2D1C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="30990" yWindow="525" windowWidth="25425" windowHeight="14625" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="사용법" sheetId="5" r:id="rId1"/>
@@ -24,11 +24,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'230411 업데이트'!$B$1:$T$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'230516 업데이트'!$B$1:$T$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'230613 업데이트'!$A$1:$U$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230718 업데이트'!$A$1:$U$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$U$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230718 업데이트'!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">사용법!$H$1:$Y$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'템플릿(복사해서사용)'!$B$1:$U$38</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -320,70 +320,627 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비고(내부파악용)</t>
-  </si>
-  <si>
-    <t>용사 집결! 출석체크 이벤트</t>
+    <t>비고(내부)</t>
+  </si>
+  <si>
+    <t>단오절 기념 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상급 아드레날린 증폭 포션 </t>
+  </si>
+  <si>
+    <t>특별한 모둠 꼬치구이[이벤트]</t>
+  </si>
+  <si>
+    <t>용선</t>
+  </si>
+  <si>
+    <t>콜포트의 축복[이벤트]</t>
+  </si>
+  <si>
+    <t>특별한 비약 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>경험치 증폭제[20%]</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르의 계약서[1시간][이벤트]</t>
+  </si>
+  <si>
+    <t>쫑즈[이벤트]</t>
+  </si>
+  <si>
+    <t>요일 던전 리뉴얼 기념 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t>230627 패치 적용</t>
+  </si>
+  <si>
+    <t>희귀 포인트 충전석 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>극복의 성배 전리품 상자</t>
+  </si>
+  <si>
+    <t>시간의 모래 주머니</t>
+  </si>
+  <si>
+    <t>영혼의 부적 전리품 상자</t>
+  </si>
+  <si>
+    <t>생명의 금관 전리품 상자</t>
+  </si>
+  <si>
+    <t>상급 전투 지원 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>숙련의 나팔 전리품 상자</t>
+  </si>
+  <si>
+    <t>파괴의 가면 전리품 상자</t>
+  </si>
+  <si>
+    <t>수호의 팔찌 전리품 상자</t>
+  </si>
+  <si>
+    <t>상급 매터리얼 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>희귀 변신 확정 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>단오절 기념 미션 이벤트</t>
+  </si>
+  <si>
+    <t>골드 6,220,000 소모</t>
+  </si>
+  <si>
+    <t>아무 마물 몬스터 23,622 마리 처치</t>
+  </si>
+  <si>
+    <t>아이템 강화 시도 22회</t>
+  </si>
+  <si>
+    <t>아이템 분해 시도 22회</t>
+  </si>
+  <si>
+    <t>아이템 제작 22회 성공</t>
+  </si>
+  <si>
+    <t>체력 회복 포션 6,220개 사용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 미션 완료 </t>
+  </si>
+  <si>
+    <t>요일 던전 리뉴얼 기념 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 미션 완료</t>
+  </si>
+  <si>
+    <t>탐사 완료 보상 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>헤라켄의 정원 마물 1,500마리 처치</t>
+  </si>
+  <si>
+    <t>빛나는 무기 강화 주문서 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>벨제뷔트의 정원 마물 1,500마리 처치</t>
+  </si>
+  <si>
+    <t>빛나는 방어구 강화 주문서 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>유게네스의 정원 마물 1,500마리 처치</t>
+  </si>
+  <si>
+    <t>빛나는 장신구 강화 주문서 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>가이아스의 정원 마물 600마리 처치</t>
+  </si>
+  <si>
+    <t>변신 포인트 충전석[고급]</t>
+  </si>
+  <si>
+    <t>시간의 모래 20개 사용</t>
+  </si>
+  <si>
+    <t>서번트 포인트 충전석[고급]</t>
+  </si>
+  <si>
+    <t>일일 미션 50회 완료</t>
+  </si>
+  <si>
+    <t>각성한 영웅의 레벨 달성 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터당 1회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 91 달성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[전설][귀속] 1개, 서번트 합성 포인트 획득권[전설][귀속] 1개, 봉인된 영혼석[영웅][귀속] 20개</t>
+  </si>
+  <si>
+    <t>레벨 92 달성</t>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[영웅][귀속] 1개, 변신 합성 포인트 획득권[전설][귀속] 1개, 가이아스의 증표 Ⅵ[귀속] 1개</t>
+  </si>
+  <si>
+    <t>레벨 93 달성</t>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[영웅][귀속] 1개, 서번트 합성 포인트 획득권[전설][귀속] 1개, 희귀 매터리얼 확정 상자[이벤트][귀속] 5개</t>
+  </si>
+  <si>
+    <t>레벨 94 달성</t>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[영웅][귀속] 1개, 변신 합성 포인트 획득권[전설][귀속] 1개, 가이아스의 증표 Ⅶ[귀속] 1개</t>
+  </si>
+  <si>
+    <t>레벨 95 달성</t>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[전설][귀속] 1개, 매터리얼 합성 포인트 획득권[전설][귀속] 1개, 장인의 전설 제작 비급서 조각 상자[귀속] 10개</t>
+  </si>
+  <si>
+    <t>각성한 영웅 도감 Ⅰ</t>
+  </si>
+  <si>
+    <t>전체서버</t>
+  </si>
+  <si>
+    <t>마법 공격력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>도감</t>
+  </si>
+  <si>
+    <t>각성한 영웅 도감 Ⅱ</t>
+  </si>
+  <si>
+    <t>물리 피해 감소(근접)</t>
+  </si>
+  <si>
+    <t>물리 피해 감소(원거리)</t>
+  </si>
+  <si>
+    <t>단오절 기념 제작 이벤트</t>
+  </si>
+  <si>
+    <t>쫑즈 1개</t>
+  </si>
+  <si>
+    <t>용선 100개</t>
+  </si>
+  <si>
+    <t>고급~희귀 변신 뽑기권 1개</t>
+  </si>
+  <si>
+    <t>용선 30개</t>
+  </si>
+  <si>
+    <t>계정당 2회</t>
+  </si>
+  <si>
+    <t>고급~희귀 서번트 뽑기권 1개</t>
+  </si>
+  <si>
+    <t>장비 각인석 1개</t>
+  </si>
+  <si>
+    <t>용선 10개</t>
+  </si>
+  <si>
+    <t>계정당 10회</t>
+  </si>
+  <si>
+    <t>명예 코인 상자 10개</t>
+  </si>
+  <si>
+    <t>계정당 3회</t>
+  </si>
+  <si>
+    <t>로얄 코인 상자 10개</t>
+  </si>
+  <si>
+    <t>길드 코인 상자 10개</t>
+  </si>
+  <si>
+    <t>상급 회복의 마법 주문서 1개</t>
+  </si>
+  <si>
+    <t>용선 2개</t>
+  </si>
+  <si>
+    <t>제한 없음</t>
+  </si>
+  <si>
+    <t>상급 전투의 마법 주문서 1개</t>
+  </si>
+  <si>
+    <t>통합 길드전 오픈 기념 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t>1일차</t>
+  </si>
+  <si>
+    <t>투사의 증표</t>
+  </si>
+  <si>
+    <t>2일차</t>
+  </si>
+  <si>
+    <t>3일차</t>
+  </si>
+  <si>
+    <t>매터리얼 교환 증서 상자[고급]</t>
+  </si>
+  <si>
+    <t>4일차</t>
+  </si>
+  <si>
+    <t>5일차</t>
+  </si>
+  <si>
+    <t>최상급 아드레날린 증폭 포션</t>
+  </si>
+  <si>
+    <t>6일차</t>
+  </si>
+  <si>
+    <t>골드 지원 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>7일차</t>
+  </si>
+  <si>
+    <t>8일차</t>
+  </si>
+  <si>
+    <t>9일차</t>
+  </si>
+  <si>
+    <t>장비 각인석[이벤트]</t>
+  </si>
+  <si>
+    <t>10일차</t>
+  </si>
+  <si>
+    <t>R2:重燃戰火 300일 감사의 출석체크 이벤트</t>
+  </si>
+  <si>
+    <t>상급 아드레날린 증폭 포션</t>
+  </si>
+  <si>
+    <t>상급 회복의 마법 주문서</t>
+  </si>
+  <si>
+    <t>상급 전투의 마법 주문서</t>
+  </si>
+  <si>
+    <t>300일 기념 선물 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르 사냥 계약서[1시간][이벤트]</t>
+  </si>
+  <si>
+    <t>빛나는 유피테르 성장 계약서[1시간][이벤트]</t>
+  </si>
+  <si>
+    <t>시간의 모래 주머니[이벤트]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">통합 길드전 오픈 기념 미션 이벤트 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 장비나 강화 30회 시도</t>
+  </si>
+  <si>
+    <t>일반 매터리얼 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>변신 합성 10회</t>
+  </si>
+  <si>
+    <t>매터리얼 상자[일반~고급][이벤트]</t>
+  </si>
+  <si>
+    <t>체력 회복 포션 5,000회 사용</t>
+  </si>
+  <si>
+    <t>상급 행운의 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>서번트 합성 10회</t>
+  </si>
+  <si>
+    <t>상급 변신 강화 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>아이템 분해 30회</t>
+  </si>
+  <si>
+    <t>상급 클래스 전용 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>일일 미션 30회 수행</t>
+  </si>
+  <si>
+    <t>고급 매터리얼 확정 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>R2:重燃戰火 300일 기념 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마물 23,521마리 처치</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권</t>
+  </si>
+  <si>
+    <t>변신의 돌 30회 소모</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권</t>
+  </si>
+  <si>
+    <t>서번트의 돌 30회 소모</t>
+  </si>
+  <si>
+    <t>고급 희귀 서번트 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>변신 획득 30회</t>
+  </si>
+  <si>
+    <t>고급~희귀 변신 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>서번트 획득 30회</t>
+  </si>
+  <si>
+    <t>고급 서번트 확정 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>일일 미션 30회 완료</t>
+  </si>
+  <si>
+    <t>고급 변신 확정 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>상급 변신 뽑기권[11회]</t>
+  </si>
+  <si>
+    <t>통합 길드전 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀속된 태초의 흔적 상자</t>
+  </si>
+  <si>
+    <t>투사의 증표 120개</t>
+  </si>
+  <si>
+    <t>계정 당 1회</t>
+  </si>
+  <si>
+    <t>투사의 증표 30개</t>
+  </si>
+  <si>
+    <t>계정 당 2회</t>
+  </si>
+  <si>
+    <t>상급 서번트 뽑기권[11회]</t>
+  </si>
+  <si>
+    <t>시간의 모래 주머니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사의 증표 5개</t>
+  </si>
+  <si>
+    <t>계정 당 5회</t>
+  </si>
+  <si>
+    <t>투사의 증표 1개</t>
+  </si>
+  <si>
+    <t>계정 당 30회</t>
+  </si>
+  <si>
+    <t>일루미나의 성지 탐험 출석체크 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매터리얼 상자[일반~고급]</t>
+  </si>
+  <si>
+    <t>봉인된 영혼석[희귀]</t>
+  </si>
+  <si>
+    <t>무기 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>방어구 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>장신구 강화 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>행운의 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>클래스 전용 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>변신 강화 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>장인의 희귀 제작 비급서 조각</t>
+  </si>
+  <si>
+    <t>축복받은 장비 각인석</t>
+  </si>
+  <si>
+    <t>버터클과 함께하는 출석체크 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별한 비약 상자</t>
+  </si>
+  <si>
+    <t>모험가를 위한 특선 요리</t>
+  </si>
+  <si>
+    <t>전투 지원 상자[이벤트]</t>
+  </si>
+  <si>
+    <t>로얄 코인 상자</t>
+  </si>
+  <si>
+    <t>명예 코인 상자</t>
+  </si>
+  <si>
+    <t>무료 경험치 복구 주문서[이벤트]</t>
+  </si>
+  <si>
+    <t>고급 매터리얼 확정 상자</t>
+  </si>
+  <si>
+    <t>영웅을 위한 장비 제작 지원 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 강화 성공 100회</t>
+  </si>
+  <si>
+    <t>특별한 이벤트 제작 코인[이벤트]</t>
+  </si>
+  <si>
+    <t>아이템 제작 성공 30회</t>
+  </si>
+  <si>
+    <t>변신 획득 25회</t>
+  </si>
+  <si>
+    <t>서번트 획득 25회</t>
+  </si>
+  <si>
+    <t>버터클과 함께하는 미션 이벤트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,030,303 골드 소모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상급 변신 뽑기권[이벤트] </t>
+  </si>
+  <si>
+    <t>서번트 소환의 돌 30회 소모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상급 서번트 뽑기권[이벤트] </t>
+  </si>
+  <si>
+    <t>변신 합성 20회 시도</t>
+  </si>
+  <si>
+    <t>서번트 합성 20회 시도</t>
+  </si>
+  <si>
+    <t>길드 코인 상자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">클래스 전용 매터리얼 상자[이벤트] </t>
+  </si>
+  <si>
+    <t>영웅을 위한 장비 제작 지원 미션 이벤트로 얻은 특별한 이벤트 제작 코인[이벤트]를 활용하여 원하는 아이템 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별한 제작 재료 상자[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>특별한 이벤트 제작 코인[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>영웅 장비 제작 비급서 조각 상자[이벤트] 1개</t>
+  </si>
+  <si>
+    <t>계정당 30회</t>
+  </si>
+  <si>
+    <t>상급 아드레날린 증폭 포션 1개</t>
+  </si>
+  <si>
+    <t>제한없음</t>
   </si>
   <si>
     <t>계정당 1회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">상급 서번트 뽑기권[11회][이벤트] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">상급 변신 뽑기권[11회][이벤트] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">고급~희귀 서번트 뽑기권[이벤트] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">고급~희귀 변신 뽑기권[이벤트] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">행운의 매터리얼 상자[이벤트] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 강화 매터리얼 상자[이벤트] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1주년 [전투 축제] 특별 선물 상자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">방어구 복구 주문서[이벤트] </t>
+  </si>
+  <si>
     <t>장신구 복구 주문서[이벤트]</t>
   </si>
   <si>
     <t>골드</t>
   </si>
   <si>
-    <t xml:space="preserve">상급 서번트 뽑기권[11회][이벤트] </t>
-  </si>
-  <si>
     <t>길드 코인</t>
   </si>
   <si>
-    <t xml:space="preserve">상급 변신 뽑기권[11회][이벤트] </t>
-  </si>
-  <si>
     <t>명예 코인</t>
   </si>
   <si>
-    <t xml:space="preserve">고급~희귀 서번트 뽑기권[이벤트] </t>
-  </si>
-  <si>
     <t>로얄 코인</t>
   </si>
   <si>
-    <t xml:space="preserve">고급~희귀 변신 뽑기권[이벤트] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">행운의 매터리얼 상자[이벤트] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">변신 강화 매터리얼 상자[이벤트] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">클래스 전용 매터리얼 상자[이벤트] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1주년 [전투 축제] 특별 선물 상자 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">방어구 복구 주문서[이벤트] </t>
-  </si>
-  <si>
-    <t>전쟁의 신이 내린 시련 미션 이벤트</t>
-  </si>
-  <si>
-    <t>모든 미션 완료</t>
-  </si>
-  <si>
     <t>1주년 [전투 축제] 전장의 보급품</t>
   </si>
   <si>
-    <t>230627 패치 적용</t>
-  </si>
-  <si>
     <t>아이템 제작 25회</t>
   </si>
   <si>
@@ -402,43 +959,37 @@
     <t>골드 10,000,000 소모</t>
   </si>
   <si>
-    <t>1주년 [전투 축제] 도장 수집 미션 이벤트</t>
-  </si>
-  <si>
     <t>체력 회복 포션 365개 사용</t>
   </si>
   <si>
+    <t>골드 3,650,000 소모</t>
+  </si>
+  <si>
+    <t>변신 합성 15회</t>
+  </si>
+  <si>
+    <t>서번트 합성 15회</t>
+  </si>
+  <si>
+    <t>일일 미션 25회 완료</t>
+  </si>
+  <si>
     <t>1주년 [전투 축제] 도장 문양1[이벤트]</t>
   </si>
   <si>
-    <t>골드 3,650,000 소모</t>
-  </si>
-  <si>
     <t>1주년 [전투 축제] 도장 문양2[이벤트]</t>
   </si>
   <si>
-    <t>변신 합성 15회</t>
-  </si>
-  <si>
     <t>1주년 [전투 축제] 도장 문양3[이벤트]</t>
   </si>
   <si>
-    <t>서번트 합성 15회</t>
-  </si>
-  <si>
     <t>1주년 [전투 축제] 도장 문양4[이벤트]</t>
   </si>
   <si>
     <t>1주년 [전투 축제] 도장 문양5[이벤트]</t>
   </si>
   <si>
-    <t>일일 미션 25회 완료</t>
-  </si>
-  <si>
     <t>1주년 [전투 축제] 도장 문양6[이벤트]</t>
-  </si>
-  <si>
-    <t>1주년 [전투 축제] 여정의 기록 Ⅰ - 도감</t>
   </si>
   <si>
     <t>경험치 획득량</t>
@@ -457,9 +1008,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1주년 [전투 축제] 여정의 기록 Ⅱ - 도감</t>
-  </si>
-  <si>
     <t>계약 효과증가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -472,46 +1020,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전투 축제를 위한 보급품 제작 이벤트</t>
+    <t>1주년 [전투 축제] 전장의 보급품 365개</t>
+  </si>
+  <si>
+    <t>1주년 [전투 축제] 전장의 보급품 100개</t>
+  </si>
+  <si>
+    <t>1주년 [전투 축제] 전장의 보급품 50개</t>
+  </si>
+  <si>
+    <t>1주년 [전투 축제] 전장의 보급품 25개</t>
+  </si>
+  <si>
+    <t>1주년 [전투 축제] 전장의 보급품 10개</t>
+  </si>
+  <si>
+    <t>1주년 [전투 축제] 전장의 보급품 1개</t>
   </si>
   <si>
     <t>1주년 [전투 축제] 전쟁의 신의 선택</t>
   </si>
   <si>
-    <t>1주년 [전투 축제] 전장의 보급품 365개</t>
-  </si>
-  <si>
     <t>무기 복구 주문서[이벤트]</t>
   </si>
   <si>
-    <t>계정당 2회</t>
-  </si>
-  <si>
-    <t>희귀 변신 확정 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>1주년 [전투 축제] 전장의 보급품 100개</t>
+    <t>희귀 서번트 확정 뽑기권[이벤트]</t>
+  </si>
+  <si>
+    <t>희귀 매터리얼 확정 상자</t>
+  </si>
+  <si>
+    <t>최상급 매터리얼 상자</t>
+  </si>
+  <si>
+    <t>전리품 상자 제작서[이벤트]</t>
+  </si>
+  <si>
+    <t>마나에 물든 파피루스</t>
   </si>
   <si>
     <t>계정당 2회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>희귀 서번트 확정 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>계정당 10회</t>
-  </si>
-  <si>
-    <t>희귀 매터리얼 확정 상자</t>
-  </si>
-  <si>
-    <t>최상급 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>1주년 [전투 축제] 전장의 보급품 50개</t>
-  </si>
-  <si>
     <t>계정당 3회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -520,65 +1071,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시간의 모래 주머니</t>
-  </si>
-  <si>
-    <t>1주년 [전투 축제] 전장의 보급품 25개</t>
-  </si>
-  <si>
     <t>계정당 10회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전리품 상자 제작서[이벤트]</t>
-  </si>
-  <si>
-    <t>빛나는 유피테르 사냥 계약서[1시간][이벤트]</t>
-  </si>
-  <si>
-    <t>빛나는 유피테르 성장 계약서[1시간][이벤트]</t>
-  </si>
-  <si>
-    <t>봉인된 영혼석[희귀]</t>
-  </si>
-  <si>
-    <t>장비 각인석[이벤트]</t>
-  </si>
-  <si>
-    <t>매터리얼 상자[일반~고급][이벤트]</t>
-  </si>
-  <si>
-    <t>1주년 [전투 축제] 전장의 보급품 10개</t>
-  </si>
-  <si>
-    <t>계정당 3회</t>
-  </si>
-  <si>
     <t>계정당 20회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마나에 물든 파피루스</t>
-  </si>
-  <si>
-    <t>상급 회복의 마법 주문서</t>
-  </si>
-  <si>
-    <t>1주년 [전투 축제] 전장의 보급품 1개</t>
-  </si>
-  <si>
-    <t>제한 없음</t>
-  </si>
-  <si>
-    <t>상급 전투의 마법 주문서</t>
-  </si>
-  <si>
-    <t>상급 아드레날린 증폭 포션</t>
-  </si>
-  <si>
-    <t>경험치 증폭제[20%]</t>
-  </si>
-  <si>
     <t>제한 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -595,525 +1095,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비고(내부)</t>
-  </si>
-  <si>
-    <t>단오절 기념 출석체크 이벤트</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상급 아드레날린 증폭 포션 </t>
-  </si>
-  <si>
-    <t>특별한 모둠 꼬치구이[이벤트]</t>
-  </si>
-  <si>
-    <t>용선</t>
-  </si>
-  <si>
-    <t>콜포트의 축복[이벤트]</t>
-  </si>
-  <si>
-    <t>특별한 비약 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>빛나는 유피테르의 계약서[1시간][이벤트]</t>
-  </si>
-  <si>
-    <t>쫑즈[이벤트]</t>
-  </si>
-  <si>
-    <t>요일 던전 리뉴얼 기념 출석체크 이벤트</t>
-  </si>
-  <si>
-    <t>희귀 포인트 충전석 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>극복의 성배 전리품 상자</t>
-  </si>
-  <si>
-    <t>영혼의 부적 전리품 상자</t>
-  </si>
-  <si>
-    <t>생명의 금관 전리품 상자</t>
-  </si>
-  <si>
-    <t>상급 전투 지원 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>숙련의 나팔 전리품 상자</t>
-  </si>
-  <si>
-    <t>파괴의 가면 전리품 상자</t>
-  </si>
-  <si>
-    <t>수호의 팔찌 전리품 상자</t>
-  </si>
-  <si>
-    <t>상급 매터리얼 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>단오절 기념 미션 이벤트</t>
-  </si>
-  <si>
-    <t>골드 6,220,000 소모</t>
-  </si>
-  <si>
-    <t>아무 마물 몬스터 23,622 마리 처치</t>
-  </si>
-  <si>
-    <t>아이템 강화 시도 22회</t>
-  </si>
-  <si>
-    <t>아이템 분해 시도 22회</t>
-  </si>
-  <si>
-    <t>아이템 제작 22회 성공</t>
-  </si>
-  <si>
-    <t>체력 회복 포션 6,220개 사용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 미션 완료 </t>
-  </si>
-  <si>
-    <t>요일 던전 리뉴얼 기념 미션 이벤트</t>
+    <t>전투 축제를 위한 보급품 제작 이벤트</t>
+  </si>
+  <si>
+    <t>비고(내부파악용)</t>
+  </si>
+  <si>
+    <t>전쟁의 신이 내린 시련 미션 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>탐사 완료 보상 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>헤라켄의 정원 마물 1,500마리 처치</t>
-  </si>
-  <si>
-    <t>빛나는 무기 강화 주문서 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>벨제뷔트의 정원 마물 1,500마리 처치</t>
-  </si>
-  <si>
-    <t>빛나는 방어구 강화 주문서 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>유게네스의 정원 마물 1,500마리 처치</t>
-  </si>
-  <si>
-    <t>빛나는 장신구 강화 주문서 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>가이아스의 정원 마물 600마리 처치</t>
-  </si>
-  <si>
-    <t>변신 포인트 충전석[고급]</t>
-  </si>
-  <si>
-    <t>시간의 모래 20개 사용</t>
-  </si>
-  <si>
-    <t>서번트 포인트 충전석[고급]</t>
-  </si>
-  <si>
-    <t>일일 미션 50회 완료</t>
-  </si>
-  <si>
-    <t>각성한 영웅의 레벨 달성 이벤트</t>
+    <t>용사 집결! 출석체크 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터당 1회</t>
+    <t>1주년 [전투 축제] 도장 수집 미션 이벤트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>레벨 91 달성</t>
+    <t>1주년 [전투 축제] 여정의 기록 Ⅰ - 도감</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>매터리얼 교환 증서 상자[전설][귀속] 1개, 서번트 합성 포인트 획득권[전설][귀속] 1개, 봉인된 영혼석[영웅][귀속] 20개</t>
-  </si>
-  <si>
-    <t>레벨 92 달성</t>
-  </si>
-  <si>
-    <t>매터리얼 교환 증서 상자[영웅][귀속] 1개, 변신 합성 포인트 획득권[전설][귀속] 1개, 가이아스의 증표 Ⅵ[귀속] 1개</t>
-  </si>
-  <si>
-    <t>레벨 93 달성</t>
-  </si>
-  <si>
-    <t>매터리얼 교환 증서 상자[영웅][귀속] 1개, 서번트 합성 포인트 획득권[전설][귀속] 1개, 희귀 매터리얼 확정 상자[이벤트][귀속] 5개</t>
-  </si>
-  <si>
-    <t>레벨 94 달성</t>
-  </si>
-  <si>
-    <t>매터리얼 교환 증서 상자[영웅][귀속] 1개, 변신 합성 포인트 획득권[전설][귀속] 1개, 가이아스의 증표 Ⅶ[귀속] 1개</t>
-  </si>
-  <si>
-    <t>레벨 95 달성</t>
-  </si>
-  <si>
-    <t>매터리얼 교환 증서 상자[전설][귀속] 1개, 매터리얼 합성 포인트 획득권[전설][귀속] 1개, 장인의 전설 제작 비급서 조각 상자[귀속] 10개</t>
-  </si>
-  <si>
-    <t>각성한 영웅 도감 Ⅰ</t>
-  </si>
-  <si>
-    <t>전체서버</t>
-  </si>
-  <si>
-    <t>마법 공격력</t>
+    <t>1주년 [전투 축제] 여정의 기록 Ⅱ - 도감</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>도감</t>
-  </si>
-  <si>
-    <t>각성한 영웅 도감 Ⅱ</t>
-  </si>
-  <si>
-    <t>물리 피해 감소(근접)</t>
-  </si>
-  <si>
-    <t>물리 피해 감소(원거리)</t>
-  </si>
-  <si>
-    <t>단오절 기념 제작 이벤트</t>
-  </si>
-  <si>
-    <t>쫑즈 1개</t>
-  </si>
-  <si>
-    <t>용선 100개</t>
-  </si>
-  <si>
-    <t>고급~희귀 변신 뽑기권 1개</t>
-  </si>
-  <si>
-    <t>용선 30개</t>
-  </si>
-  <si>
-    <t>고급~희귀 서번트 뽑기권 1개</t>
-  </si>
-  <si>
-    <t>장비 각인석 1개</t>
-  </si>
-  <si>
-    <t>용선 10개</t>
-  </si>
-  <si>
-    <t>명예 코인 상자 10개</t>
-  </si>
-  <si>
-    <t>로얄 코인 상자 10개</t>
-  </si>
-  <si>
-    <t>길드 코인 상자 10개</t>
-  </si>
-  <si>
-    <t>상급 회복의 마법 주문서 1개</t>
-  </si>
-  <si>
-    <t>용선 2개</t>
-  </si>
-  <si>
-    <t>상급 전투의 마법 주문서 1개</t>
-  </si>
-  <si>
-    <t>통합 길드전 오픈 기념 출석체크 이벤트</t>
-  </si>
-  <si>
-    <t>1일차</t>
-  </si>
-  <si>
-    <t>투사의 증표</t>
-  </si>
-  <si>
-    <t>2일차</t>
-  </si>
-  <si>
-    <t>3일차</t>
-  </si>
-  <si>
-    <t>매터리얼 교환 증서 상자[고급]</t>
-  </si>
-  <si>
-    <t>4일차</t>
-  </si>
-  <si>
-    <t>5일차</t>
-  </si>
-  <si>
-    <t>최상급 아드레날린 증폭 포션</t>
-  </si>
-  <si>
-    <t>6일차</t>
-  </si>
-  <si>
-    <t>골드 지원 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>7일차</t>
-  </si>
-  <si>
-    <t>8일차</t>
-  </si>
-  <si>
-    <t>9일차</t>
-  </si>
-  <si>
-    <t>10일차</t>
-  </si>
-  <si>
-    <t>R2:重燃戰火 300일 감사의 출석체크 이벤트</t>
-  </si>
-  <si>
-    <t>300일 기념 선물 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>시간의 모래 주머니[이벤트]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">통합 길드전 오픈 기념 미션 이벤트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무 장비나 강화 30회 시도</t>
-  </si>
-  <si>
-    <t>일반 매터리얼 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>변신 합성 10회</t>
-  </si>
-  <si>
-    <t>체력 회복 포션 5,000회 사용</t>
-  </si>
-  <si>
-    <t>상급 행운의 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>서번트 합성 10회</t>
-  </si>
-  <si>
-    <t>상급 변신 강화 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>아이템 분해 30회</t>
-  </si>
-  <si>
-    <t>상급 클래스 전용 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>일일 미션 30회 수행</t>
-  </si>
-  <si>
-    <t>고급 매터리얼 확정 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>R2:重燃戰火 300일 기념 미션 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마물 23,521마리 처치</t>
-  </si>
-  <si>
-    <t>상급 변신 뽑기권</t>
-  </si>
-  <si>
-    <t>변신의 돌 30회 소모</t>
-  </si>
-  <si>
-    <t>상급 서번트 뽑기권</t>
-  </si>
-  <si>
-    <t>서번트의 돌 30회 소모</t>
-  </si>
-  <si>
-    <t>고급 희귀 서번트 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>변신 획득 30회</t>
-  </si>
-  <si>
-    <t>고급~희귀 변신 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>서번트 획득 30회</t>
-  </si>
-  <si>
-    <t>고급 서번트 확정 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>일일 미션 30회 완료</t>
-  </si>
-  <si>
-    <t>고급 변신 확정 뽑기권[이벤트]</t>
-  </si>
-  <si>
-    <t>상급 변신 뽑기권[11회]</t>
-  </si>
-  <si>
-    <t>통합 길드전 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀속된 태초의 흔적 상자</t>
-  </si>
-  <si>
-    <t>투사의 증표 120개</t>
-  </si>
-  <si>
-    <t>계정 당 1회</t>
-  </si>
-  <si>
-    <t>투사의 증표 30개</t>
-  </si>
-  <si>
-    <t>계정 당 2회</t>
-  </si>
-  <si>
-    <t>상급 서번트 뽑기권[11회]</t>
-  </si>
-  <si>
-    <t>시간의 모래 주머니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사의 증표 5개</t>
-  </si>
-  <si>
-    <t>계정 당 5회</t>
-  </si>
-  <si>
-    <t>투사의 증표 1개</t>
-  </si>
-  <si>
-    <t>계정 당 30회</t>
-  </si>
-  <si>
-    <t>일루미나의 성지 탐험 출석체크 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매터리얼 상자[일반~고급]</t>
-  </si>
-  <si>
-    <t>무기 강화 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>방어구 강화 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>장신구 강화 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>행운의 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>클래스 전용 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>변신 강화 매터리얼 상자</t>
-  </si>
-  <si>
-    <t>장인의 희귀 제작 비급서 조각</t>
-  </si>
-  <si>
-    <t>축복받은 장비 각인석</t>
-  </si>
-  <si>
-    <t>버터클과 함께하는 출석체크 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별한 비약 상자</t>
-  </si>
-  <si>
-    <t>모험가를 위한 특선 요리</t>
-  </si>
-  <si>
-    <t>전투 지원 상자[이벤트]</t>
-  </si>
-  <si>
-    <t>로얄 코인 상자</t>
-  </si>
-  <si>
-    <t>명예 코인 상자</t>
-  </si>
-  <si>
-    <t>무료 경험치 복구 주문서[이벤트]</t>
-  </si>
-  <si>
-    <t>고급 매터리얼 확정 상자</t>
-  </si>
-  <si>
-    <t>영웅을 위한 장비 제작 지원 미션 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 강화 성공 100회</t>
-  </si>
-  <si>
-    <t>특별한 이벤트 제작 코인[이벤트]</t>
-  </si>
-  <si>
-    <t>아이템 제작 성공 30회</t>
-  </si>
-  <si>
-    <t>변신 획득 25회</t>
-  </si>
-  <si>
-    <t>서번트 획득 25회</t>
-  </si>
-  <si>
-    <t>버터클과 함께하는 미션 이벤트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,030,303 골드 소모</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상급 변신 뽑기권[이벤트] </t>
-  </si>
-  <si>
-    <t>서번트 소환의 돌 30회 소모</t>
-  </si>
-  <si>
-    <t xml:space="preserve">상급 서번트 뽑기권[이벤트] </t>
-  </si>
-  <si>
-    <t>변신 합성 20회 시도</t>
-  </si>
-  <si>
-    <t>서번트 합성 20회 시도</t>
-  </si>
-  <si>
-    <t>길드 코인 상자</t>
-  </si>
-  <si>
-    <t>영웅을 위한 장비 제작 지원 미션 이벤트로 얻은 특별한 이벤트 제작 코인[이벤트]를 활용하여 원하는 아이템 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별한 제작 재료 상자[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>특별한 이벤트 제작 코인[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>영웅 장비 제작 비급서 조각 상자[이벤트] 1개</t>
-  </si>
-  <si>
-    <t>계정당 30회</t>
-  </si>
-  <si>
-    <t>상급 아드레날린 증폭 포션 1개</t>
-  </si>
-  <si>
-    <t>제한없음</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1620,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 1">
+        <xdr:cNvPr id="66" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425DF0CB-EBC6-4605-4957-455A52E191DC}"/>
@@ -1880,7 +1885,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
+        <xdr:cNvPr id="130" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EC0145-DBB3-E626-5F73-9666432E136F}"/>
@@ -2032,7 +2037,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+        <xdr:cNvPr id="143" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFB1AEB-106E-4311-4827-860D87E27BF5}"/>
@@ -2184,7 +2189,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
+        <xdr:cNvPr id="238" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3396C997-52D5-1463-DA08-B9CBC13D2620}"/>
@@ -2363,7 +2368,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="화살표: 오른쪽 5">
+        <xdr:cNvPr id="240" name="화살표: 오른쪽 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD0E4CB-9462-7677-FA5C-81DE169D3E7A}"/>
@@ -2423,7 +2428,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="화살표: 오른쪽 7">
+        <xdr:cNvPr id="242" name="화살표: 오른쪽 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9633206-A8CF-DE07-E8AD-FD97AEF0103A}"/>
@@ -2483,7 +2488,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="화살표: 오른쪽 8">
+        <xdr:cNvPr id="241" name="화살표: 오른쪽 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E687A47C-83C0-0FC3-211C-A9F3C4775386}"/>
@@ -2529,6 +2534,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2833,11 +2842,11 @@
   </sheetPr>
   <dimension ref="G1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="U52" sqref="A52:U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4178,11 +4187,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ED1357-92AA-4108-B658-A22B86A94B58}">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4257,7 +4266,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4271,10 +4280,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
@@ -4289,7 +4298,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
       <c r="M2" s="6">
         <v>1</v>
@@ -4314,7 +4323,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>87</v>
+        <v>280</v>
       </c>
       <c r="M3" s="5">
         <v>3650000</v>
@@ -4339,7 +4348,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="M4" s="5">
         <v>1</v>
@@ -4364,7 +4373,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="M5" s="6">
         <v>36500</v>
@@ -4389,7 +4398,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="M6" s="5">
         <v>1</v>
@@ -4414,7 +4423,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="M7" s="6">
         <v>36500</v>
@@ -4439,7 +4448,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
@@ -4464,7 +4473,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="M9" s="6">
         <v>36500</v>
@@ -4489,7 +4498,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>94</v>
+        <v>274</v>
       </c>
       <c r="M10" s="5">
         <v>1</v>
@@ -4514,7 +4523,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4539,7 +4548,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4564,7 +4573,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4589,7 +4598,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4614,7 +4623,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -4635,7 +4644,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>31</v>
@@ -4651,11 +4660,11 @@
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="36" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="M16" s="36">
         <v>40</v>
@@ -4664,7 +4673,7 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -4684,11 +4693,11 @@
       <c r="H17" s="20"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17" t="s">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="36" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="M17" s="36">
         <v>10</v>
@@ -4697,7 +4706,7 @@
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
@@ -4717,11 +4726,11 @@
       <c r="H18" s="20"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17" t="s">
-        <v>105</v>
+        <v>286</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="36" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="M18" s="36">
         <v>10</v>
@@ -4730,7 +4739,7 @@
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
@@ -4750,11 +4759,11 @@
       <c r="H19" s="20"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17" t="s">
-        <v>106</v>
+        <v>287</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="36" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="M19" s="36">
         <v>10</v>
@@ -4763,7 +4772,7 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
@@ -4783,11 +4792,11 @@
       <c r="H20" s="20"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17" t="s">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="36" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="M20" s="36">
         <v>10</v>
@@ -4796,7 +4805,7 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
@@ -4816,11 +4825,11 @@
       <c r="H21" s="20"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17" t="s">
-        <v>108</v>
+        <v>289</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="36" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="M21" s="36">
         <v>10</v>
@@ -4829,7 +4838,7 @@
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
@@ -4849,11 +4858,11 @@
       <c r="H22" s="20"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17" t="s">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="36" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="M22" s="36">
         <v>10</v>
@@ -4862,7 +4871,7 @@
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
@@ -4887,7 +4896,7 @@
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
@@ -4912,7 +4921,7 @@
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
@@ -4937,7 +4946,7 @@
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
@@ -4962,7 +4971,7 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
@@ -4987,7 +4996,7 @@
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
@@ -5012,7 +5021,7 @@
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
@@ -5037,7 +5046,7 @@
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
@@ -5062,7 +5071,7 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
@@ -5080,7 +5089,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>110</v>
+        <v>335</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>31</v>
@@ -5096,11 +5105,11 @@
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -5123,11 +5132,11 @@
       <c r="H32" s="10"/>
       <c r="I32" s="32"/>
       <c r="J32" s="7" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7" t="s">
-        <v>112</v>
+        <v>296</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5150,11 +5159,11 @@
       <c r="H33" s="10"/>
       <c r="I33" s="32"/>
       <c r="J33" s="7" t="s">
-        <v>113</v>
+        <v>292</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -5177,11 +5186,11 @@
       <c r="H34" s="10"/>
       <c r="I34" s="32"/>
       <c r="J34" s="7" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7" t="s">
-        <v>116</v>
+        <v>298</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -5204,11 +5213,11 @@
       <c r="H35" s="10"/>
       <c r="I35" s="32"/>
       <c r="J35" s="7" t="s">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7" t="s">
-        <v>118</v>
+        <v>299</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -5235,7 +5244,7 @@
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7" t="s">
-        <v>119</v>
+        <v>300</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -5258,11 +5267,11 @@
       <c r="H37" s="10"/>
       <c r="I37" s="32"/>
       <c r="J37" s="7" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -5301,7 +5310,7 @@
         <v>67</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17" t="s">
@@ -5317,7 +5326,7 @@
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
       <c r="L39" s="17" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="M39" s="17">
         <v>10</v>
@@ -5346,7 +5355,7 @@
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="M40" s="17">
         <v>365</v>
@@ -5375,7 +5384,7 @@
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
       <c r="L41" s="17" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="M41" s="17">
         <v>2</v>
@@ -5404,7 +5413,7 @@
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="M42" s="17">
         <v>2</v>
@@ -5495,7 +5504,7 @@
         <v>67</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
@@ -5511,7 +5520,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7" t="s">
-        <v>128</v>
+        <v>306</v>
       </c>
       <c r="M46" s="7">
         <v>5</v>
@@ -5536,7 +5545,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7" t="s">
-        <v>129</v>
+        <v>307</v>
       </c>
       <c r="M47" s="7">
         <v>365</v>
@@ -5561,7 +5570,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7" t="s">
-        <v>130</v>
+        <v>308</v>
       </c>
       <c r="M48" s="7">
         <v>2</v>
@@ -5618,7 +5627,7 @@
         <v>51</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="17" t="s">
@@ -5634,11 +5643,11 @@
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
       <c r="L51" s="17" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="M51" s="17"/>
       <c r="N51" s="23" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="O51" s="17">
         <v>1000000</v>
@@ -5647,7 +5656,7 @@
         <v>31</v>
       </c>
       <c r="Q51" s="17" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
@@ -5669,20 +5678,20 @@
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17" t="s">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="M52" s="17"/>
       <c r="N52" s="23" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="O52" s="17">
         <v>1000000</v>
       </c>
       <c r="P52" s="17" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
@@ -5704,20 +5713,20 @@
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
       <c r="L53" s="17" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M53" s="17"/>
       <c r="N53" s="23" t="s">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="O53" s="17">
         <v>365</v>
       </c>
       <c r="P53" s="17" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q53" s="17" t="s">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="R53" s="21"/>
       <c r="S53" s="21"/>
@@ -5739,20 +5748,20 @@
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17" t="s">
-        <v>139</v>
+        <v>317</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="23" t="s">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="O54" s="17">
         <v>365</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="Q54" s="17" t="s">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="R54" s="21"/>
       <c r="S54" s="21"/>
@@ -5774,18 +5783,18 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="23" t="s">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="O55" s="17">
         <v>365</v>
       </c>
       <c r="P55" s="17"/>
       <c r="Q55" s="17" t="s">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="R55" s="21"/>
       <c r="S55" s="21"/>
@@ -5807,18 +5816,18 @@
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17" t="s">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="23" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="O56" s="17">
         <v>365</v>
       </c>
       <c r="P56" s="17"/>
       <c r="Q56" s="17" t="s">
-        <v>144</v>
+        <v>323</v>
       </c>
       <c r="R56" s="21"/>
       <c r="S56" s="21"/>
@@ -5844,14 +5853,14 @@
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="23" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="O57" s="17">
         <v>365</v>
       </c>
       <c r="P57" s="17"/>
       <c r="Q57" s="17" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="R57" s="21"/>
       <c r="S57" s="21"/>
@@ -5877,14 +5886,14 @@
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="23" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="O58" s="17">
         <v>365</v>
       </c>
       <c r="P58" s="17"/>
       <c r="Q58" s="17" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
@@ -5906,18 +5915,18 @@
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="23" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="O59" s="17">
         <v>365</v>
       </c>
       <c r="P59" s="17"/>
       <c r="Q59" s="17" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="R59" s="21"/>
       <c r="S59" s="21"/>
@@ -5939,18 +5948,18 @@
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="23" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="O60" s="17">
         <v>365</v>
       </c>
       <c r="P60" s="17"/>
       <c r="Q60" s="17" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="R60" s="21"/>
       <c r="S60" s="21"/>
@@ -5972,18 +5981,18 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="23" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="O61" s="17">
         <v>365</v>
       </c>
       <c r="P61" s="17"/>
       <c r="Q61" s="17" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="R61" s="21"/>
       <c r="S61" s="21"/>
@@ -6005,18 +6014,18 @@
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="23" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="O62" s="17">
         <v>365</v>
       </c>
       <c r="P62" s="17"/>
       <c r="Q62" s="17" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="R62" s="21"/>
       <c r="S62" s="21"/>
@@ -6038,18 +6047,18 @@
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
       <c r="L63" s="17" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="M63" s="17"/>
       <c r="N63" s="23" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="O63" s="17">
         <v>365</v>
       </c>
       <c r="P63" s="17"/>
       <c r="Q63" s="17" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="R63" s="21"/>
       <c r="S63" s="21"/>
@@ -6071,18 +6080,18 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
       <c r="L64" s="17" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="M64" s="17"/>
       <c r="N64" s="23" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="O64" s="17">
         <v>365</v>
       </c>
       <c r="P64" s="17"/>
       <c r="Q64" s="17" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="R64" s="21"/>
       <c r="S64" s="21"/>
@@ -6104,20 +6113,20 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
       <c r="L65" s="17" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="M65" s="17"/>
       <c r="N65" s="23" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="O65" s="17">
         <v>365</v>
       </c>
       <c r="P65" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q65" s="17" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="R65" s="21"/>
       <c r="S65" s="21"/>
@@ -6139,20 +6148,20 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
       <c r="L66" s="17" t="s">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="M66" s="17"/>
       <c r="N66" s="23" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="O66" s="17">
         <v>365</v>
       </c>
       <c r="P66" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q66" s="17" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="R66" s="21"/>
       <c r="S66" s="21"/>
@@ -6174,20 +6183,20 @@
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
       <c r="L67" s="17" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="M67" s="17"/>
       <c r="N67" s="23" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="O67" s="17">
         <v>1</v>
       </c>
       <c r="P67" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q67" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R67" s="21"/>
       <c r="S67" s="21"/>
@@ -6209,18 +6218,18 @@
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
       <c r="L68" s="17" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="M68" s="17"/>
       <c r="N68" s="23" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="O68" s="17">
         <v>1</v>
       </c>
       <c r="P68" s="17"/>
       <c r="Q68" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R68" s="21"/>
       <c r="S68" s="21"/>
@@ -6242,20 +6251,20 @@
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
       <c r="L69" s="17" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="M69" s="17"/>
       <c r="N69" s="23" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="O69" s="17">
         <v>1</v>
       </c>
       <c r="P69" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q69" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R69" s="21"/>
       <c r="S69" s="21"/>
@@ -6277,20 +6286,20 @@
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
       <c r="L70" s="17" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="23" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="O70" s="17">
         <v>1</v>
       </c>
       <c r="P70" s="17" t="s">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="Q70" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
@@ -6304,7 +6313,7 @@
         <v>67</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
@@ -6320,7 +6329,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7" t="s">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -6345,7 +6354,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -6370,7 +6379,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7" t="s">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="M73" s="7">
         <v>1</v>
@@ -6579,7 +6588,7 @@
       <c r="U82" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U82" xr:uid="{CBE16723-2B1C-4B26-A9AF-081275E5AC4F}"/>
+  <autoFilter ref="A1:U1" xr:uid="{11ED1357-92AA-4108-B658-A22B86A94B58}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
@@ -6591,10 +6600,10 @@
   <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D62" sqref="A60:D62"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6669,7 +6678,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6680,7 +6689,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -6700,7 +6709,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="M2" s="6">
         <v>10</v>
@@ -6724,7 +6733,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="M3" s="5">
         <v>5</v>
@@ -6748,7 +6757,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="M4" s="5">
         <v>4</v>
@@ -6772,7 +6781,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="M5" s="5">
         <v>5</v>
@@ -6796,7 +6805,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="M6" s="5">
         <v>5</v>
@@ -6820,7 +6829,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="M7" s="5">
         <v>4</v>
@@ -6844,7 +6853,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="M8" s="5">
         <v>10</v>
@@ -6868,7 +6877,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="M9" s="5">
         <v>3</v>
@@ -6892,7 +6901,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="M10" s="5">
         <v>4</v>
@@ -6916,7 +6925,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -6937,7 +6946,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>31</v>
@@ -6966,7 +6975,7 @@
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
@@ -6990,7 +6999,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="33" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="M13" s="33">
         <v>5</v>
@@ -6999,7 +7008,7 @@
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
@@ -7023,7 +7032,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="33" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="M14" s="33">
         <v>11</v>
@@ -7032,7 +7041,7 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
@@ -7056,7 +7065,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="33" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="M15" s="33">
         <v>5</v>
@@ -7065,7 +7074,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
@@ -7089,7 +7098,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="33" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="M16" s="33">
         <v>11</v>
@@ -7098,7 +7107,7 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
@@ -7122,7 +7131,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="33" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="M17" s="33">
         <v>11</v>
@@ -7131,7 +7140,7 @@
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
@@ -7155,7 +7164,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="33" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="M18" s="33">
         <v>10</v>
@@ -7164,7 +7173,7 @@
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
@@ -7197,7 +7206,7 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
@@ -7221,7 +7230,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="33" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="M20" s="33">
         <v>5</v>
@@ -7230,7 +7239,7 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
@@ -7254,7 +7263,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="33" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="M21" s="33">
         <v>11</v>
@@ -7263,7 +7272,7 @@
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
@@ -7287,7 +7296,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="33" t="s">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="M22" s="33">
         <v>3</v>
@@ -7296,7 +7305,7 @@
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
@@ -7320,7 +7329,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="33" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="M23" s="33">
         <v>11</v>
@@ -7329,7 +7338,7 @@
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
@@ -7353,7 +7362,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="33" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="M24" s="33">
         <v>11</v>
@@ -7362,7 +7371,7 @@
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
@@ -7386,7 +7395,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="33" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="M25" s="33">
         <v>1</v>
@@ -7395,7 +7404,7 @@
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
@@ -7419,7 +7428,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="33" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M26" s="33">
         <v>4</v>
@@ -7428,7 +7437,7 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
@@ -7443,7 +7452,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>31</v>
@@ -7461,11 +7470,11 @@
         <v>212000127</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="M27" s="7">
         <v>62</v>
@@ -7487,11 +7496,11 @@
         <v>212000128</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -7513,11 +7522,11 @@
         <v>212000129</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="M29" s="7">
         <v>62</v>
@@ -7539,11 +7548,11 @@
         <v>212000130</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -7565,11 +7574,11 @@
         <v>212000131</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="M31" s="7">
         <v>62</v>
@@ -7591,11 +7600,11 @@
         <v>212000132</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="M32" s="7">
         <v>62</v>
@@ -7617,11 +7626,11 @@
         <v>212000133</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="M33" s="7">
         <v>62</v>
@@ -7639,7 +7648,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>31</v>
@@ -7657,11 +7666,11 @@
         <v>212000134</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="M34" s="17">
         <v>1</v>
@@ -7687,11 +7696,11 @@
         <v>212000135</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="M35" s="17">
         <v>3</v>
@@ -7717,11 +7726,11 @@
         <v>212000136</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>200</v>
+        <v>119</v>
       </c>
       <c r="K36" s="17"/>
       <c r="L36" s="17" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="M36" s="17">
         <v>3</v>
@@ -7747,11 +7756,11 @@
         <v>212000137</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="K37" s="17"/>
       <c r="L37" s="17" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="M37" s="17">
         <v>3</v>
@@ -7777,11 +7786,11 @@
         <v>212000138</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="K38" s="17"/>
       <c r="L38" s="17" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="M38" s="17">
         <v>3</v>
@@ -7807,11 +7816,11 @@
         <v>212000139</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>206</v>
+        <v>125</v>
       </c>
       <c r="K39" s="17"/>
       <c r="L39" s="17" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="M39" s="17">
         <v>2</v>
@@ -7837,11 +7846,11 @@
         <v>212000140</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="M40" s="17">
         <v>1</v>
@@ -7863,10 +7872,10 @@
         <v>29</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>18</v>
@@ -7879,11 +7888,11 @@
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7903,11 +7912,11 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7" t="s">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7927,11 +7936,11 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -7951,11 +7960,11 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7975,11 +7984,11 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -7997,11 +8006,11 @@
         <v>67</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="17" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="G46" s="20">
         <v>45090</v>
@@ -8065,7 +8074,7 @@
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17" t="s">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="M48" s="17">
         <v>4</v>
@@ -8091,7 +8100,7 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
       <c r="L49" s="17" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="M49" s="17">
         <v>100</v>
@@ -8110,14 +8119,14 @@
         <v>330019</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="G50" s="10">
         <v>45090</v>
@@ -8129,7 +8138,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="M50" s="7">
         <v>4</v>
@@ -8151,7 +8160,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -8195,7 +8204,7 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="M53" s="7">
         <v>100</v>
@@ -8213,7 +8222,7 @@
         <v>51</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17" t="s">
@@ -8229,11 +8238,11 @@
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="23" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="O54" s="17">
         <v>620000</v>
@@ -8261,20 +8270,20 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="23" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="O55" s="17">
         <v>620000</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q55" s="17" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="R55" s="21"/>
       <c r="S55" s="21"/>
@@ -8293,20 +8302,20 @@
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="M56" s="17"/>
       <c r="N56" s="23" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="O56" s="17">
         <v>620000</v>
       </c>
       <c r="P56" s="17" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="Q56" s="17" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="R56" s="21"/>
       <c r="S56" s="21"/>
@@ -8325,20 +8334,20 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="M57" s="17"/>
       <c r="N57" s="23" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="O57" s="17">
         <v>60000</v>
       </c>
       <c r="P57" s="17" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="Q57" s="17" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="R57" s="21"/>
       <c r="S57" s="21"/>
@@ -8357,20 +8366,20 @@
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="23" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="O58" s="17">
         <v>60000</v>
       </c>
       <c r="P58" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q58" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
@@ -8389,20 +8398,20 @@
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="23" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="O59" s="17">
         <v>60000</v>
       </c>
       <c r="P59" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q59" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R59" s="21"/>
       <c r="S59" s="21"/>
@@ -8421,20 +8430,20 @@
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
       <c r="L60" s="17" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="M60" s="17"/>
       <c r="N60" s="23" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="O60" s="17">
         <v>60000</v>
       </c>
       <c r="P60" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q60" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R60" s="21"/>
       <c r="S60" s="21"/>
@@ -8453,20 +8462,20 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="23" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="O61" s="17">
         <v>30000</v>
       </c>
       <c r="P61" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q61" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R61" s="21"/>
       <c r="S61" s="21"/>
@@ -8485,20 +8494,20 @@
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="M62" s="17"/>
       <c r="N62" s="23" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="O62" s="17">
         <v>30000</v>
       </c>
       <c r="P62" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q62" s="17" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R62" s="21"/>
       <c r="S62" s="21"/>
@@ -8599,7 +8608,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -8614,11 +8623,11 @@
         <v>45076</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="L2" s="6">
         <v>1</v>
@@ -8636,11 +8645,11 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="5" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="L3" s="5">
         <v>10</v>
@@ -8658,11 +8667,11 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="5" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="L4" s="5">
         <v>1</v>
@@ -8680,11 +8689,11 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="5" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="L5" s="5">
         <v>1</v>
@@ -8702,11 +8711,11 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="5" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="L6" s="5">
         <v>10</v>
@@ -8724,11 +8733,11 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="5" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="L7" s="5">
         <v>10</v>
@@ -8746,11 +8755,11 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="5" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -8768,11 +8777,11 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="5" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="L9" s="5">
         <v>2</v>
@@ -8790,11 +8799,11 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="5" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -8812,11 +8821,11 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="5" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7">
         <v>2</v>
@@ -8833,7 +8842,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -8848,11 +8857,11 @@
         <v>45076</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="L12" s="17">
         <v>3</v>
@@ -8874,11 +8883,11 @@
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
       <c r="I13" s="17" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="L13" s="17">
         <v>3</v>
@@ -8900,11 +8909,11 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
       <c r="I14" s="17" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="L14" s="17">
         <v>9</v>
@@ -8926,11 +8935,11 @@
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="17" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="L15" s="17">
         <v>9</v>
@@ -8952,11 +8961,11 @@
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
       <c r="I16" s="17" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="L16" s="17">
         <v>9</v>
@@ -8978,11 +8987,11 @@
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="I17" s="17" t="s">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
@@ -9004,11 +9013,11 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
       <c r="I18" s="17" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -9030,11 +9039,11 @@
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
       <c r="I19" s="17" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="L19" s="17">
         <v>3</v>
@@ -9056,11 +9065,11 @@
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
       <c r="I20" s="17" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="L20" s="17">
         <v>3</v>
@@ -9082,11 +9091,11 @@
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
       <c r="I21" s="17" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="L21" s="17">
         <v>1</v>
@@ -9107,7 +9116,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -9122,11 +9131,11 @@
         <v>45076</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="L22" s="7">
         <v>12</v>
@@ -9144,11 +9153,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7">
         <v>3</v>
@@ -9166,11 +9175,11 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="7" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="L24" s="7">
         <v>1</v>
@@ -9188,11 +9197,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="L25" s="7">
         <v>1</v>
@@ -9210,11 +9219,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L26" s="7">
         <v>1</v>
@@ -9232,11 +9241,11 @@
       <c r="G27" s="9"/>
       <c r="H27" s="10"/>
       <c r="I27" s="7" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="L27" s="7">
         <v>3</v>
@@ -9254,11 +9263,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7">
         <v>2</v>
@@ -9275,7 +9284,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -9290,11 +9299,11 @@
         <v>45076</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="L29" s="17">
         <v>6</v>
@@ -9316,11 +9325,11 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="L30" s="17">
         <v>6</v>
@@ -9342,11 +9351,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="L31" s="17">
         <v>3</v>
@@ -9368,11 +9377,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="L32" s="17">
         <v>3</v>
@@ -9394,11 +9403,11 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="L33" s="17">
         <v>3</v>
@@ -9420,11 +9429,11 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="L34" s="17">
         <v>3</v>
@@ -9446,11 +9455,11 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="L35" s="17">
         <v>3</v>
@@ -9471,7 +9480,7 @@
         <v>51</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -9486,19 +9495,19 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="L36" s="7">
         <v>1</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="N36" s="7">
         <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="P36" s="8"/>
     </row>
@@ -9513,19 +9522,19 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="L37" s="7">
         <v>1</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="N37" s="7">
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="P37" s="8"/>
     </row>
@@ -9540,19 +9549,19 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="L38" s="7">
         <v>1</v>
       </c>
       <c r="M38" s="30" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="N38" s="7">
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="P38" s="8"/>
     </row>
@@ -9567,19 +9576,19 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="L39" s="7">
         <v>5</v>
       </c>
       <c r="M39" s="30" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="N39" s="7">
         <v>0</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>296</v>
+        <v>226</v>
       </c>
       <c r="P39" s="8"/>
     </row>
@@ -9594,19 +9603,19 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="L40" s="7">
         <v>1</v>
       </c>
       <c r="M40" s="30" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="N40" s="7">
         <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="P40" s="8"/>
     </row>
@@ -9621,19 +9630,19 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="L41" s="7">
         <v>1</v>
       </c>
       <c r="M41" s="30" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="N41" s="7">
         <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="P41" s="8"/>
     </row>
@@ -9850,7 +9859,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -9867,7 +9876,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="L2" s="6">
         <v>2</v>
@@ -9887,7 +9896,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="L3" s="5">
         <v>2</v>
@@ -9907,7 +9916,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="L4" s="5">
         <v>5</v>
@@ -9927,7 +9936,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="L5" s="5">
         <v>10</v>
@@ -9947,7 +9956,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="L6" s="5">
         <v>5</v>
@@ -9967,7 +9976,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
@@ -9987,7 +9996,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="L8" s="5">
         <v>1</v>
@@ -10007,7 +10016,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="L9" s="5">
         <v>1</v>
@@ -10027,7 +10036,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="L10" s="5">
         <v>3</v>
@@ -10047,7 +10056,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
@@ -10064,7 +10073,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -10081,7 +10090,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="L12" s="17">
         <v>5</v>
@@ -10105,7 +10114,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="L13" s="17">
         <v>5</v>
@@ -10129,7 +10138,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="L14" s="17">
         <v>10</v>
@@ -10153,7 +10162,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="L15" s="17">
         <v>5</v>
@@ -10177,7 +10186,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17" t="s">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="L16" s="17">
         <v>1</v>
@@ -10201,7 +10210,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17" t="s">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="L17" s="17">
         <v>1</v>
@@ -10225,7 +10234,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="L18" s="17">
         <v>3</v>
@@ -10249,7 +10258,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17" t="s">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="L19" s="17">
         <v>2</v>
@@ -10273,7 +10282,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="L20" s="17">
         <v>2</v>
@@ -10297,7 +10306,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="L21" s="17">
         <v>3</v>
@@ -10318,7 +10327,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -10333,11 +10342,11 @@
         <v>45041</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7">
         <v>5</v>
@@ -10355,11 +10364,11 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="L23" s="7">
         <v>5</v>
@@ -10381,7 +10390,7 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="L24" s="7">
         <v>5</v>
@@ -10399,11 +10408,11 @@
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
       <c r="I25" s="7" t="s">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7">
         <v>5</v>
@@ -10421,11 +10430,11 @@
       <c r="G26" s="9"/>
       <c r="H26" s="10"/>
       <c r="I26" s="7" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7">
         <v>5</v>
@@ -10447,7 +10456,7 @@
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="L27" s="7">
         <v>5</v>
@@ -10465,11 +10474,11 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="L28" s="7">
         <v>10</v>
@@ -10486,7 +10495,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -10501,11 +10510,11 @@
         <v>45055</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="L29" s="17">
         <v>5</v>
@@ -10527,11 +10536,11 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
       <c r="I30" s="17" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="L30" s="17">
         <v>1</v>
@@ -10553,11 +10562,11 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="L31" s="17">
         <v>1</v>
@@ -10579,11 +10588,11 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="L32" s="17">
         <v>2</v>
@@ -10605,11 +10614,11 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="J33" s="17"/>
       <c r="K33" s="17" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="L33" s="17">
         <v>2</v>
@@ -10631,11 +10640,11 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="L34" s="17">
         <v>10</v>
@@ -10657,11 +10666,11 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="L35" s="17">
         <v>1</v>
@@ -10682,7 +10691,7 @@
         <v>51</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
@@ -10697,17 +10706,17 @@
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="L36" s="17"/>
       <c r="M36" s="23" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="N36" s="17">
         <v>600000</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
@@ -10725,17 +10734,17 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="23" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="N37" s="17">
         <v>450000</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
@@ -10753,17 +10762,17 @@
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="L38" s="17"/>
       <c r="M38" s="24" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="N38" s="17">
         <v>20000</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
@@ -10868,7 +10877,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>17</v>
@@ -10886,7 +10895,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="M2" s="6">
         <v>2</v>
@@ -10907,7 +10916,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="M3" s="5">
         <v>2</v>
@@ -10928,7 +10937,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="M4" s="5">
         <v>5</v>
@@ -10949,7 +10958,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="M5" s="5">
         <v>10</v>
@@ -10970,7 +10979,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="M6" s="5">
         <v>5</v>
@@ -10991,7 +11000,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>304</v>
+        <v>235</v>
       </c>
       <c r="M7" s="5">
         <v>1</v>
@@ -11012,7 +11021,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
@@ -11033,7 +11042,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="M9" s="5">
         <v>1</v>
@@ -11054,7 +11063,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="M10" s="5">
         <v>3</v>
@@ -11075,7 +11084,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -11092,7 +11101,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>17</v>
@@ -11110,7 +11119,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="M12" s="17">
         <v>5</v>
@@ -11135,7 +11144,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="M13" s="17">
         <v>5</v>
@@ -11160,7 +11169,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="M14" s="17">
         <v>10</v>
@@ -11185,7 +11194,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="M15" s="17">
         <v>5</v>
@@ -11210,7 +11219,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17" t="s">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="M16" s="17">
         <v>1</v>
@@ -11235,7 +11244,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17" t="s">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="M17" s="17">
         <v>1</v>
@@ -11260,7 +11269,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="M18" s="17">
         <v>3</v>
@@ -11285,7 +11294,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17" t="s">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="M19" s="17">
         <v>2</v>
@@ -11310,7 +11319,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="M20" s="17">
         <v>2</v>
@@ -11335,7 +11344,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="M21" s="17">
         <v>3</v>
@@ -11356,7 +11365,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>31</v>
@@ -11372,11 +11381,11 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -11395,11 +11404,11 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="7" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -11422,7 +11431,7 @@
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -11441,11 +11450,11 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -11464,11 +11473,11 @@
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="7" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -11491,7 +11500,7 @@
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="M27" s="7">
         <v>5</v>
@@ -11510,11 +11519,11 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -11531,7 +11540,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>31</v>
@@ -11547,11 +11556,11 @@
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="17" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="K29" s="17"/>
       <c r="L29" s="17" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="M29" s="17">
         <v>5</v>
@@ -11574,11 +11583,11 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="17" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="K30" s="17"/>
       <c r="L30" s="17" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="M30" s="17">
         <v>1</v>
@@ -11601,11 +11610,11 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="17" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="M31" s="17">
         <v>1</v>
@@ -11628,11 +11637,11 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17" t="s">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="17" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="M32" s="17">
         <v>2</v>
@@ -11655,11 +11664,11 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="17" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="M33" s="17">
         <v>2</v>
@@ -11682,11 +11691,11 @@
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17" t="s">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="M34" s="17">
         <v>10</v>
@@ -11709,11 +11718,11 @@
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
       <c r="J35" s="17" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="K35" s="17"/>
       <c r="L35" s="17" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="M35" s="17">
         <v>1</v>
@@ -11734,7 +11743,7 @@
         <v>51</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
@@ -11750,17 +11759,17 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="M36" s="17"/>
       <c r="N36" s="23" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="O36" s="17">
         <v>600000</v>
       </c>
       <c r="P36" s="17" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
@@ -11779,17 +11788,17 @@
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="17" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="M37" s="17"/>
       <c r="N37" s="23" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="O37" s="17">
         <v>450000</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
@@ -11808,17 +11817,17 @@
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="M38" s="17"/>
       <c r="N38" s="24" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="O38" s="17">
         <v>20000</v>
       </c>
       <c r="P38" s="17" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
@@ -12062,6 +12071,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7b850dbe-2bbc-4312-b635-0ac631df3b32">
@@ -12072,49 +12090,18 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F213CB30-3A2F-41B9-8C91-F3128B4D3C0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
-    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7869460D-678B-4B1D-AD3D-A497418AB750}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E35DA2B5-61EC-4C24-B329-E2F82CD31185}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
-    <ds:schemaRef ds:uri="1e91ce72-769a-45b6-b2e9-1e3503954573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171D66FE-42B9-4914-A8C9-E322ECCEF2B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14559B0E-74B9-4600-9608-A1B8D3450D34}"/>
 </file>